--- a/戴森球计算表.xlsx
+++ b/戴森球计算表.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\戴森球\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0AC8F5-A6F6-4483-B79E-5C1C636F7238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C138D8A4-FE71-4309-B552-E87EC7C24FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一些计算" sheetId="4" r:id="rId1"/>
     <sheet name="量化计算器" sheetId="1" r:id="rId2"/>
     <sheet name="全建筑" sheetId="9" r:id="rId3"/>
     <sheet name="1875" sheetId="8" r:id="rId4"/>
-    <sheet name="全建筑 (2)" sheetId="11" r:id="rId5"/>
-    <sheet name="勿动" sheetId="2" r:id="rId6"/>
+    <sheet name="常用建筑" sheetId="13" r:id="rId5"/>
+    <sheet name="非常用建筑 " sheetId="14" r:id="rId6"/>
+    <sheet name="勿动" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="266">
   <si>
     <t>物品</t>
   </si>
@@ -415,88 +416,88 @@
   </si>
   <si>
     <t>适用版本</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0.6.15.5666</t>
   </si>
   <si>
     <t>机器数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>重氢产量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>个/min</t>
   </si>
   <si>
     <t>糖产量（增产）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>透镜消耗（增产）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>/min</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>原始</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增产修正</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>最终</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>物流塔运输量，编号从赤道开始</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>塔1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>塔2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>塔3</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>塔4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>塔5运硅</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>塔2由塔5供硅后</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>铁矿</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>铜矿</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>光子</t>
   </si>
   <si>
     <t>铁板</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>氘</t>
@@ -506,31 +507,31 @@
   </si>
   <si>
     <t>钛化</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>玻璃</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>钛</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>钛晶</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>电路</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>石墨</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>煤矿</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>有机</t>
@@ -546,504 +547,486 @@
   </si>
   <si>
     <t>有机</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>刺笋</t>
   </si>
   <si>
     <t>钛板</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>单极</t>
   </si>
   <si>
     <t>钛矿</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增产剂</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>翘曲</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>总和</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>石矿</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>水</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>和</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>无自喷</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>自喷涂</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>加上自喷消耗</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔1</t>
-  </si>
-  <si>
-    <t>塔3</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>---</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>一级电线杆</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>二级电线杆</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>线圈</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>低级建筑</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>电浆器</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>蓝马达</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>框架材料</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>卫星电站</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>齿轮</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>风电</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>火电</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>石板</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>太阳能</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>铜板</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>硅板</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>电路板</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>统计于0.10.29</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>电池</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>晶格硅</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>地热能</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>钢材</t>
   </si>
   <si>
     <t>光子合并</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>钛合金</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>处理器</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>碳纳米管</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>核电</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>能量枢纽</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>粒子容器</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>锅</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>小太阳</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>约束球</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>量子芯片</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>黄带</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>绿马达</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>绿带</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>蓝带</t>
   </si>
   <si>
     <t>蓝带</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>石墨烯</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>马达</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>黄爪</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>绿爪</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>蓝爪</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>白爪</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>四向</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>集装机</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>流量计</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>喷涂机</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>微晶元件</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>小箱子</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>大箱子</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>储液罐</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>配送器</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>行星物流塔</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>星际物流塔</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>轨道采集器</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>加力推进器</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>采矿机</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>大矿机</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>光栅</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>单极</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>抽水机</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>原油萃取站</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>原油精炼厂</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>分馏塔</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>化工厂</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>量子化工厂</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>钛化玻璃</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>奇异物质</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对撞机</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>电弧熔炉</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>位面熔炉</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>位面过滤器</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>黑雾材料</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>负商熔炉</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>一级台</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>二级台</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>三级台</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>宽带</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>黑雾台</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>研究站</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>黑雾研究站</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>轨道弹射器</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>垂直发射井</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>引力透镜</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>机枪塔</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>导弹塔</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>动力引擎</t>
   </si>
   <si>
-    <t>动力引擎</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>加农炮</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>激光塔</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>电浆炮</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>进程电浆炮</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>分析基站</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>干扰塔</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>金刚石</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>信号塔</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>行星护盾</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>配送机</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>推进器</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>运输机</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>星际运输机</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>计数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>传送带</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>堆叠层数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>分馏塔产量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>产量单位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>传送带流量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>材料名称</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>物品配方</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>机器数量</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1053,12 +1036,26 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1251,7 +1248,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1375,6 +1372,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,223 +1511,230 @@
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="8" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="8" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="12" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="12" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="14" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="12" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="13" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="13" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="13" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="13" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="13" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="13" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="13" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="20% - 着色 1" xfId="5" builtinId="30"/>
@@ -3549,38 +3565,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
-        <v>263</v>
-      </c>
-      <c r="B1" s="102" t="s">
-        <v>264</v>
+      <c r="A1" s="79" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
-        <v>196</v>
+      <c r="A2" s="80" t="s">
+        <v>194</v>
       </c>
       <c r="B2" s="55">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="103"/>
+      <c r="A3" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="87"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="69" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3592,8 +3608,8 @@
         <f>勿动!A$2*0.01</f>
         <v>72</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="99">
+      <c r="D5" s="56"/>
+      <c r="E5" s="78">
         <f>D5/1.25/96</f>
         <v>0</v>
       </c>
@@ -3606,11 +3622,11 @@
         <f>B5+(勿动!A$2-B5)*0.01</f>
         <v>143.28</v>
       </c>
-      <c r="D6" s="99">
+      <c r="D6" s="78">
         <f>E6*96*1.25</f>
         <v>0</v>
       </c>
-      <c r="E6" s="75"/>
+      <c r="E6" s="56"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -4498,7 +4514,7 @@
   <mergeCells count="1">
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{2480B4E3-94AE-4614-A561-47A8FE0344E9}">
       <formula1>"1,2,3,4"</formula1>
@@ -4516,7 +4532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
@@ -4526,11 +4542,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="105" t="s">
-        <v>268</v>
+      <c r="B1" s="88" t="s">
+        <v>263</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -4543,10 +4559,10 @@
       <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="105"/>
+      <c r="A2" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="88"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -4559,19 +4575,19 @@
       <c r="I2" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="O2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="56"/>
-      <c r="S2" s="57" t="s">
+      <c r="P2" s="103"/>
+      <c r="S2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="57"/>
+      <c r="T2" s="104"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="104" t="s">
-        <v>270</v>
+      <c r="A3" s="97"/>
+      <c r="B3" s="82" t="s">
+        <v>265</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>11</v>
@@ -4636,11 +4652,11 @@
       <c r="R5" s="8"/>
       <c r="S5" s="7"/>
       <c r="T5" s="8"/>
-      <c r="U5" s="61" t="s">
+      <c r="U5" s="89" t="s">
         <v>12</v>
       </c>
       <c r="V5" s="21"/>
-      <c r="W5" s="61" t="s">
+      <c r="W5" s="89" t="s">
         <v>13</v>
       </c>
       <c r="X5" s="21"/>
@@ -4704,12 +4720,12 @@
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="10"/>
-      <c r="U6" s="62"/>
+      <c r="U6" s="90"/>
       <c r="V6" s="22">
         <f>(X7+X6)*2</f>
         <v>0</v>
       </c>
-      <c r="W6" s="62"/>
+      <c r="W6" s="90"/>
       <c r="X6" s="22">
         <f>(L28+L27)/2</f>
         <v>0</v>
@@ -4747,117 +4763,117 @@
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="100" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="100" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="17"/>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="100" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="17"/>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="100" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="17"/>
-      <c r="K8" s="59" t="s">
+      <c r="K8" s="100" t="s">
         <v>26</v>
       </c>
       <c r="L8" s="17"/>
-      <c r="M8" s="59" t="s">
+      <c r="M8" s="100" t="s">
         <v>27</v>
       </c>
       <c r="N8" s="17"/>
-      <c r="O8" s="65" t="s">
+      <c r="O8" s="105" t="s">
         <v>6</v>
       </c>
       <c r="P8" s="40"/>
-      <c r="Q8" s="71" t="s">
+      <c r="Q8" s="95" t="s">
         <v>28</v>
       </c>
       <c r="R8" s="48"/>
-      <c r="S8" s="71" t="s">
+      <c r="S8" s="95" t="s">
         <v>9</v>
       </c>
       <c r="T8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="U8" s="61"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="21"/>
-      <c r="W8" s="61"/>
+      <c r="W8" s="89"/>
       <c r="X8" s="21"/>
-      <c r="Y8" s="61"/>
+      <c r="Y8" s="89"/>
       <c r="Z8" s="21"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="C9" s="60"/>
+      <c r="C9" s="101"/>
       <c r="D9" s="14">
         <f>(D16+D15)*3+(D18+D19)+(J18+J19)+(F15+F16)*2+(V18+V19)*5+(D31+D32)*2+(D35+D34)*2/3+(D38+D37)+(J35+J34)*3+(J32+J31)*6+(L32+L31)*10+(P32+P31)*6+(L35+L34)*4+(P35+P34)*8+(J38+J37)*4+(L38+L37)*8+(D41+D40)*4+(J41+J40)*4+(R41+R40)*8+(Z19+Z18)*2</f>
         <v>0</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="101" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="18">
         <f>(F13+F12)*0.5+(J18+J19)*0.5+(H24+H25)+(N21+N22)*2+(V15+V16)*3+(N32+N31)*6</f>
         <v>0</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="101" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="18">
         <f>(H12+H13)+(H24+H25)*2+(N32+N31)*6+(R32+R31)*20</f>
         <v>0</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="101" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="18">
         <f>(J12+J13)+(T15+T16)*3+(V12+V13)+(T35+T34)*40+(T19+T18)/2+(J16+J15)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="60" t="s">
+      <c r="K9" s="101" t="s">
         <v>26</v>
       </c>
       <c r="L9" s="18">
         <f>(Z27+Z28)*3+(L32+L31)*4+(L35+L34)*4+(N35+N34)*8+(P35+P34)*4+(L38+L37)*4+(N38+N37)*12+(P38+P37)*10+(J41+J40)*2+(N41+N40)*4+(P41+P40)*8</f>
         <v>0</v>
       </c>
-      <c r="M9" s="60" t="s">
+      <c r="M9" s="101" t="s">
         <v>27</v>
       </c>
       <c r="N9" s="18">
         <f>IF(T8="化工设备",IF(N11="石墨",(N12+N13)+(F21+F22)+(R9+R10)+(T9+T10)*3/2+(F27+F28)*2,(F21+F22)+(R9+R10)+(T9+T10)*3/2+(F27+F28)*2),IF(N11="石墨",(N12+N13)+(F21+F22)+(R9+R10)+(F27+F28)*2,(F21+F22)+(R9+R10)+(F27+F28)*2))</f>
         <v>0</v>
       </c>
-      <c r="O9" s="66"/>
+      <c r="O9" s="106"/>
       <c r="P9" s="41">
         <f>IF(R11="化工设备",IF(N17="化工设备",(N18+N19)*6/4+(R9+R10)*2+(R12+R13),(R9+R10)*2+(R12+R13)),IF(N17="化工设备",(N18+N19)*6/4+(R9+R10)*2,(R9+R10)*2))</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="72" t="s">
+      <c r="Q9" s="96" t="s">
         <v>28</v>
       </c>
       <c r="R9" s="46">
         <f>IF(R11="化工设备",(R12+R13)*2+(H22+H21),(H22+H21))</f>
         <v>0</v>
       </c>
-      <c r="S9" s="72" t="s">
+      <c r="S9" s="96" t="s">
         <v>9</v>
       </c>
       <c r="T9" s="46">
         <f>IF(N20="电磁涡轮",(N21+N22)*2+(V21+V22)*1/2+(H35+H34)/3+(F41+F40)*8+(T19+T18)*3/2+(L22+L21)*2,(V21+V22)*1/2+(H35+H34)/3+(F41+F40)*8+(T19+T18)*3/2+(L22+L21)*2)</f>
         <v>0</v>
       </c>
-      <c r="U9" s="62"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="22"/>
-      <c r="W9" s="62"/>
+      <c r="W9" s="90"/>
       <c r="X9" s="22"/>
-      <c r="Y9" s="62"/>
+      <c r="Y9" s="90"/>
       <c r="Z9" s="22"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4913,27 +4929,27 @@
       <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="100" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="89" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="100" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="100" t="s">
         <v>34</v>
       </c>
       <c r="J11" s="17"/>
-      <c r="K11" s="59" t="s">
+      <c r="K11" s="100" t="s">
         <v>35</v>
       </c>
       <c r="L11" s="17"/>
-      <c r="M11" s="59" t="s">
+      <c r="M11" s="100" t="s">
         <v>36</v>
       </c>
       <c r="N11" s="42" t="s">
@@ -4946,91 +4962,91 @@
       <c r="P11" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="Q11" s="71" t="s">
+      <c r="Q11" s="95" t="s">
         <v>38</v>
       </c>
       <c r="R11" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="S11" s="58" t="s">
+      <c r="S11" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="U11" s="63" t="s">
+      <c r="U11" s="93" t="s">
         <v>40</v>
       </c>
       <c r="V11" s="21"/>
-      <c r="W11" s="61"/>
+      <c r="W11" s="89"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="61"/>
+      <c r="Y11" s="89"/>
       <c r="Z11" s="21"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="101" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="18">
         <f>(F13+F12)+(F21+F22)*3</f>
         <v>0</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="90" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="22">
         <f>(D21+D22)*4+(F15+F16)+(F18+F19)*2+(D31+D32)+(D28+D27)+(J32+J31)*3+(L32+L31)*4+(J38+J37)*2+(J41+J40)*2+(R41+R40)*4</f>
         <v>0</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="101" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="18">
         <f>(P32+P31)*4+(H22+H21)*2</f>
         <v>0</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="101" t="s">
         <v>34</v>
       </c>
       <c r="J12" s="18">
         <f>(X15+X16)*5+(X18+X19)*10+(T38+T37)*40</f>
         <v>0</v>
       </c>
-      <c r="K12" s="60" t="s">
+      <c r="K12" s="101" t="s">
         <v>35</v>
       </c>
       <c r="L12" s="18">
         <f>(L15+L16)*3/2+(P35+P34)*4+(N41+N40)*4+(P41+P40)*8+(R41+R40)*4+(J16+J15)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="60" t="s">
+      <c r="M12" s="101" t="s">
         <v>36</v>
       </c>
       <c r="N12" s="18">
         <f>(H28+H27)+(L19+L18)*4</f>
         <v>0</v>
       </c>
-      <c r="O12" s="65" t="s">
+      <c r="O12" s="105" t="s">
         <v>7</v>
       </c>
       <c r="P12" s="41">
         <f>(V12+V13)*5+(F27+F28)*2+(L22+L21)*12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="72"/>
+      <c r="Q12" s="96"/>
       <c r="R12" s="46">
         <f>(T15+T16)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="58"/>
+      <c r="S12" s="97"/>
       <c r="T12">
         <f>IF(IF(T8="可燃冰",(T10+T9),0)&gt;IF(P11="可燃冰",(P12+P13)*2,0),IF(T8="可燃冰",(T10+T9),0),IF(P11="可燃冰",(P12+P13)*2,0))</f>
         <v>0</v>
       </c>
-      <c r="U12" s="64" t="s">
+      <c r="U12" s="94" t="s">
         <v>40</v>
       </c>
       <c r="V12" s="22"/>
-      <c r="W12" s="62"/>
+      <c r="W12" s="90"/>
       <c r="X12" s="22"/>
-      <c r="Y12" s="62"/>
+      <c r="Y12" s="90"/>
       <c r="Z12" s="22"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5064,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="20"/>
-      <c r="O13" s="67"/>
+      <c r="O13" s="107"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="47">
         <f>(R13+R12)*6/勿动!A1</f>
@@ -5089,106 +5105,106 @@
       <c r="Z13" s="20"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="100" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="17"/>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="89" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="21"/>
-      <c r="G14" s="61"/>
+      <c r="G14" s="89"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="61" t="s">
+      <c r="I14" s="89" t="s">
         <v>44</v>
       </c>
       <c r="J14" s="21"/>
-      <c r="K14" s="61" t="s">
+      <c r="K14" s="89" t="s">
         <v>45</v>
       </c>
       <c r="L14" s="21"/>
-      <c r="M14" s="70" t="s">
+      <c r="M14" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="61"/>
+      <c r="O14" s="89"/>
       <c r="P14" s="21"/>
-      <c r="Q14" s="61"/>
+      <c r="Q14" s="89"/>
       <c r="R14" s="21"/>
-      <c r="S14" s="61" t="s">
+      <c r="S14" s="89" t="s">
         <v>47</v>
       </c>
       <c r="T14" s="21"/>
-      <c r="U14" s="63" t="s">
+      <c r="U14" s="93" t="s">
         <v>48</v>
       </c>
       <c r="V14" s="21"/>
-      <c r="W14" s="63" t="s">
+      <c r="W14" s="93" t="s">
         <v>49</v>
       </c>
       <c r="X14" s="21"/>
-      <c r="Y14" s="61"/>
+      <c r="Y14" s="89"/>
       <c r="Z14" s="21"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="101" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="18">
         <f>(J12+J13)+(V15+V16)*2+(Z27+Z28)*1+(R32+R31)*20+(N35+N34)*8+(R35+R34)*20+(T35+T34)*40+(N38+N37)*12+(P38+P37)*10+(N41+N40)*8+(P41+P40)*8</f>
         <v>0</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="90" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="22">
         <f>(F18+F19)*2+(F38+F37)/2+(L38+L37)*4</f>
         <v>0</v>
       </c>
-      <c r="G15" s="62"/>
+      <c r="G15" s="90"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="62"/>
+      <c r="I15" s="90"/>
       <c r="J15" s="22">
         <f>(V7+V6)*2</f>
         <v>0</v>
       </c>
-      <c r="K15" s="62" t="s">
+      <c r="K15" s="90" t="s">
         <v>45</v>
       </c>
       <c r="L15" s="22">
         <f>IF(D23="棱镜",(D21+D22)*2+(D24+D25)*2,(D21+D22)*2)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="70"/>
+      <c r="M15" s="102"/>
       <c r="N15">
         <f>IF(N11="金伯利矿石",(N13+N12),0)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="62"/>
+      <c r="O15" s="90"/>
       <c r="P15" s="22"/>
-      <c r="Q15" s="62"/>
+      <c r="Q15" s="90"/>
       <c r="R15" s="22"/>
-      <c r="S15" s="62" t="s">
+      <c r="S15" s="90" t="s">
         <v>47</v>
       </c>
       <c r="T15" s="22">
         <f>(H28+H27)+(L22+L21)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="64" t="s">
+      <c r="U15" s="94" t="s">
         <v>48</v>
       </c>
       <c r="V15" s="22">
         <f>(V18+V19)*2</f>
         <v>0</v>
       </c>
-      <c r="W15" s="64" t="s">
+      <c r="W15" s="94" t="s">
         <v>49</v>
       </c>
       <c r="X15" s="22">
         <f>(X18+X19)*2</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="62"/>
+      <c r="Y15" s="90"/>
       <c r="Z15" s="22"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5237,108 +5253,108 @@
       <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="89" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="21"/>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="93" t="s">
         <v>51</v>
       </c>
       <c r="F17" s="21"/>
-      <c r="G17" s="61"/>
+      <c r="G17" s="89"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="61" t="s">
+      <c r="I17" s="89" t="s">
         <v>52</v>
       </c>
       <c r="J17" s="21"/>
-      <c r="K17" s="61" t="s">
+      <c r="K17" s="89" t="s">
         <v>53</v>
       </c>
       <c r="L17" s="21"/>
-      <c r="M17" s="71" t="s">
+      <c r="M17" s="95" t="s">
         <v>54</v>
       </c>
       <c r="N17" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="61" t="s">
+      <c r="O17" s="89" t="s">
         <v>55</v>
       </c>
       <c r="P17" s="21"/>
-      <c r="Q17" s="61"/>
+      <c r="Q17" s="89"/>
       <c r="R17" s="21"/>
-      <c r="S17" s="63" t="s">
+      <c r="S17" s="93" t="s">
         <v>56</v>
       </c>
       <c r="T17" s="21"/>
-      <c r="U17" s="63" t="s">
+      <c r="U17" s="93" t="s">
         <v>57</v>
       </c>
       <c r="V17" s="21"/>
-      <c r="W17" s="63" t="s">
+      <c r="W17" s="93" t="s">
         <v>58</v>
       </c>
       <c r="X17" s="21"/>
-      <c r="Y17" s="73" t="s">
+      <c r="Y17" s="91" t="s">
         <v>59</v>
       </c>
       <c r="Z17" s="51"/>
     </row>
     <row r="18" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="62"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="22">
         <f>(F15+F16)+(D35+D34)/3+(J35+J34)*2+(J32+J31)+(L31+L32)*4+(R35+R34)*20+(J38+J37)*2+(D41+D40)*8</f>
         <v>0</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="94" t="s">
         <v>51</v>
       </c>
       <c r="F18" s="22">
         <f>IF(N20="电磁涡轮",(F21+F22)*2+(N21+N22)*2+(X15+X16)*5+(F35+F34)/3+(H38+H37)/2,(F21+F22)*2+(X15+X16)*5+(F35+F34)/3+(H38+H37)/2)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="62"/>
+      <c r="G18" s="90"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="62" t="s">
+      <c r="I18" s="90" t="s">
         <v>52</v>
       </c>
       <c r="J18" s="22">
         <f>(J21+J22)*2+(D24+D25)+(D28+D27)+(D38+D37)+(J35+J34)+(N32+N31)*4+(J38+J37)*2+(L38+L37)*2+(N38+N37)*6+(P38+P37)*6+(D41+D40)*4+(J41+J40)*4+(P41+P40)*2+(R41+R40)*4</f>
         <v>0</v>
       </c>
-      <c r="K18" s="62"/>
+      <c r="K18" s="90"/>
       <c r="L18" s="22">
         <f>(L28+L27)/2</f>
         <v>0</v>
       </c>
-      <c r="M18" s="72" t="s">
+      <c r="M18" s="96" t="s">
         <v>54</v>
       </c>
       <c r="N18" s="46">
         <f>IF(T8="化工设备",(J12+J13)*2+(T9+T10)*1/2,(J12+J13)*2)</f>
         <v>0</v>
       </c>
-      <c r="O18" s="62"/>
+      <c r="O18" s="90"/>
       <c r="P18" s="22">
         <f>(Z19+Z18)*10</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="62"/>
+      <c r="Q18" s="90"/>
       <c r="R18" s="22"/>
-      <c r="S18" s="64"/>
+      <c r="S18" s="94"/>
       <c r="T18" s="22">
         <f>(H22+H21)*2</f>
         <v>0</v>
       </c>
-      <c r="U18" s="64" t="s">
+      <c r="U18" s="94" t="s">
         <v>57</v>
       </c>
       <c r="V18" s="22"/>
-      <c r="W18" s="64" t="s">
+      <c r="W18" s="94" t="s">
         <v>58</v>
       </c>
       <c r="X18" s="22"/>
-      <c r="Y18" s="74"/>
+      <c r="Y18" s="92"/>
       <c r="Z18" s="52">
         <f>(L19+L18)</f>
         <v>0</v>
@@ -5398,99 +5414,99 @@
       <c r="Z19" s="20"/>
     </row>
     <row r="20" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="93" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="21"/>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="93" t="s">
         <v>61</v>
       </c>
       <c r="F20" s="21"/>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="89" t="s">
         <v>62</v>
       </c>
       <c r="H20" s="21"/>
-      <c r="I20" s="61" t="s">
+      <c r="I20" s="89" t="s">
         <v>63</v>
       </c>
       <c r="J20" s="21"/>
-      <c r="K20" s="63" t="s">
+      <c r="K20" s="93" t="s">
         <v>64</v>
       </c>
       <c r="L20" s="21"/>
-      <c r="M20" s="63" t="s">
+      <c r="M20" s="93" t="s">
         <v>65</v>
       </c>
       <c r="N20" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="O20" s="61"/>
+      <c r="O20" s="89"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="61"/>
+      <c r="Q20" s="89"/>
       <c r="R20" s="21"/>
-      <c r="S20" s="61"/>
+      <c r="S20" s="89"/>
       <c r="T20" s="21"/>
-      <c r="U20" s="63" t="s">
+      <c r="U20" s="93" t="s">
         <v>66</v>
       </c>
       <c r="V20" s="21"/>
-      <c r="W20" s="61"/>
+      <c r="W20" s="89"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="61"/>
+      <c r="Y20" s="89"/>
       <c r="Z20" s="21"/>
     </row>
     <row r="21" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="94" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="22">
         <f>(F31+F32)*3+(N38+N37)*4+(P38+P37)*6</f>
         <v>0</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" s="94" t="s">
         <v>67</v>
       </c>
       <c r="F21" s="22">
         <f>(H35+H34)/3+(P32+P31)*6+(R32+R31)*20+(R35+R34)*10</f>
         <v>0</v>
       </c>
-      <c r="G21" s="62"/>
+      <c r="G21" s="90"/>
       <c r="H21" s="22">
         <f>(J28+J27)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="62" t="s">
+      <c r="I21" s="90" t="s">
         <v>63</v>
       </c>
       <c r="J21" s="22">
         <f>(V18+V19)*2+(X18+X19)*10+(R32+R31)*5+(R35+R34)*5+(T35+T34)*40+(F41+F40)*4+(N41+N40)+(J28+J27)*2+(X7+X6)*2</f>
         <v>0</v>
       </c>
-      <c r="K21" s="64"/>
+      <c r="K21" s="94"/>
       <c r="L21" s="22">
         <f>(V7+V6)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="64" t="s">
+      <c r="M21" s="94" t="s">
         <v>65</v>
       </c>
       <c r="N21" s="22">
         <f>(T35+T34)*20+(T38+T37)*20+(Z19+Z18)*2</f>
         <v>0</v>
       </c>
-      <c r="O21" s="62"/>
+      <c r="O21" s="90"/>
       <c r="P21" s="22"/>
-      <c r="Q21" s="62"/>
+      <c r="Q21" s="90"/>
       <c r="R21" s="22"/>
-      <c r="S21" s="62"/>
+      <c r="S21" s="90"/>
       <c r="T21" s="22"/>
-      <c r="U21" s="64" t="s">
+      <c r="U21" s="94" t="s">
         <v>66</v>
       </c>
       <c r="V21" s="22"/>
-      <c r="W21" s="62"/>
+      <c r="W21" s="90"/>
       <c r="X21" s="22"/>
-      <c r="Y21" s="62"/>
+      <c r="Y21" s="90"/>
       <c r="Z21" s="22"/>
     </row>
     <row r="22" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5541,79 +5557,79 @@
       <c r="Z22" s="20"/>
     </row>
     <row r="23" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="93" t="s">
         <v>68</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="61" t="s">
+      <c r="G23" s="89" t="s">
         <v>70</v>
       </c>
       <c r="H23" s="21"/>
-      <c r="I23" s="61"/>
+      <c r="I23" s="89"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="61"/>
+      <c r="K23" s="89"/>
       <c r="L23" s="21"/>
-      <c r="M23" s="58" t="s">
+      <c r="M23" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="O23" s="61"/>
+      <c r="O23" s="89"/>
       <c r="P23" s="21"/>
-      <c r="Q23" s="61"/>
+      <c r="Q23" s="89"/>
       <c r="R23" s="21"/>
-      <c r="S23" s="61"/>
+      <c r="S23" s="89"/>
       <c r="T23" s="21"/>
-      <c r="U23" s="61"/>
+      <c r="U23" s="89"/>
       <c r="V23" s="21"/>
-      <c r="W23" s="61"/>
+      <c r="W23" s="89"/>
       <c r="X23" s="21"/>
-      <c r="Y23" s="61"/>
+      <c r="Y23" s="89"/>
       <c r="Z23" s="21"/>
     </row>
     <row r="24" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="94" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="22">
         <f>(V21+V22)*1/2+(R32+R31)*10</f>
         <v>0</v>
       </c>
-      <c r="E24" s="58"/>
+      <c r="E24" s="97"/>
       <c r="F24" s="10">
         <f>IF(D23="光栅石",(D24+D25),0)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="62" t="s">
+      <c r="G24" s="90" t="s">
         <v>70</v>
       </c>
       <c r="H24" s="22">
         <f>(J21+J22)*2</f>
         <v>0</v>
       </c>
-      <c r="I24" s="62"/>
+      <c r="I24" s="90"/>
       <c r="J24" s="22"/>
-      <c r="K24" s="62"/>
+      <c r="K24" s="90"/>
       <c r="L24" s="22"/>
-      <c r="M24" s="58"/>
+      <c r="M24" s="97"/>
       <c r="N24" s="10">
         <f>IF(N20="单极磁石",(N22+N21)*10,0)</f>
         <v>0</v>
       </c>
-      <c r="O24" s="62"/>
+      <c r="O24" s="90"/>
       <c r="P24" s="22"/>
-      <c r="Q24" s="62"/>
+      <c r="Q24" s="90"/>
       <c r="R24" s="22"/>
-      <c r="S24" s="62"/>
+      <c r="S24" s="90"/>
       <c r="T24" s="22"/>
-      <c r="U24" s="62"/>
+      <c r="U24" s="90"/>
       <c r="V24" s="22"/>
-      <c r="W24" s="62"/>
+      <c r="W24" s="90"/>
       <c r="X24" s="22"/>
-      <c r="Y24" s="62"/>
+      <c r="Y24" s="90"/>
       <c r="Z24" s="22"/>
     </row>
     <row r="25" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5645,82 +5661,82 @@
       <c r="Z25" s="20"/>
     </row>
     <row r="26" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="98" t="s">
         <v>72</v>
       </c>
       <c r="D26" s="25"/>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="98" t="s">
         <v>73</v>
       </c>
       <c r="F26" s="25"/>
-      <c r="G26" s="68" t="s">
+      <c r="G26" s="98" t="s">
         <v>74</v>
       </c>
       <c r="H26" s="25"/>
-      <c r="I26" s="68" t="s">
+      <c r="I26" s="98" t="s">
         <v>75</v>
       </c>
       <c r="J26" s="25"/>
-      <c r="K26" s="68" t="s">
+      <c r="K26" s="98" t="s">
         <v>76</v>
       </c>
       <c r="L26" s="25"/>
-      <c r="M26" s="61"/>
+      <c r="M26" s="89"/>
       <c r="N26" s="21"/>
-      <c r="O26" s="61"/>
+      <c r="O26" s="89"/>
       <c r="P26" s="21"/>
-      <c r="Q26" s="61"/>
+      <c r="Q26" s="89"/>
       <c r="R26" s="21"/>
-      <c r="S26" s="61"/>
+      <c r="S26" s="89"/>
       <c r="T26" s="21"/>
-      <c r="U26" s="61"/>
+      <c r="U26" s="89"/>
       <c r="V26" s="21"/>
-      <c r="W26" s="61"/>
+      <c r="W26" s="89"/>
       <c r="X26" s="21"/>
-      <c r="Y26" s="63" t="s">
+      <c r="Y26" s="93" t="s">
         <v>77</v>
       </c>
       <c r="Z26" s="21"/>
     </row>
     <row r="27" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="69"/>
+      <c r="C27" s="99"/>
       <c r="D27" s="26">
         <f>N27+N28</f>
         <v>0</v>
       </c>
-      <c r="E27" s="69"/>
+      <c r="E27" s="99"/>
       <c r="F27" s="26">
         <f>N27+N28</f>
         <v>0</v>
       </c>
-      <c r="G27" s="69"/>
+      <c r="G27" s="99"/>
       <c r="H27" s="26">
         <f>N27+N28</f>
         <v>0</v>
       </c>
-      <c r="I27" s="69"/>
+      <c r="I27" s="99"/>
       <c r="J27" s="26">
         <f>N27+N28</f>
         <v>0</v>
       </c>
-      <c r="K27" s="69"/>
+      <c r="K27" s="99"/>
       <c r="L27" s="26">
         <f>N27+N28</f>
         <v>0</v>
       </c>
-      <c r="M27" s="62"/>
+      <c r="M27" s="90"/>
       <c r="N27" s="22"/>
-      <c r="O27" s="62"/>
+      <c r="O27" s="90"/>
       <c r="P27" s="22"/>
-      <c r="Q27" s="62"/>
+      <c r="Q27" s="90"/>
       <c r="R27" s="22"/>
-      <c r="S27" s="62"/>
+      <c r="S27" s="90"/>
       <c r="T27" s="22"/>
-      <c r="U27" s="62"/>
+      <c r="U27" s="90"/>
       <c r="V27" s="22"/>
-      <c r="W27" s="62"/>
+      <c r="W27" s="90"/>
       <c r="X27" s="22"/>
-      <c r="Y27" s="64" t="s">
+      <c r="Y27" s="94" t="s">
         <v>77</v>
       </c>
       <c r="Z27" s="22"/>
@@ -5771,76 +5787,76 @@
     </row>
     <row r="29" spans="3:26" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="93" t="s">
         <v>78</v>
       </c>
       <c r="D30" s="28"/>
-      <c r="E30" s="63" t="s">
+      <c r="E30" s="93" t="s">
         <v>79</v>
       </c>
       <c r="F30" s="28"/>
-      <c r="G30" s="61"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="63" t="s">
+      <c r="I30" s="93" t="s">
         <v>80</v>
       </c>
       <c r="J30" s="28"/>
-      <c r="K30" s="63" t="s">
+      <c r="K30" s="93" t="s">
         <v>81</v>
       </c>
       <c r="L30" s="28"/>
-      <c r="M30" s="63" t="s">
+      <c r="M30" s="93" t="s">
         <v>82</v>
       </c>
       <c r="N30" s="28"/>
-      <c r="O30" s="63" t="s">
+      <c r="O30" s="93" t="s">
         <v>83</v>
       </c>
       <c r="P30" s="28"/>
-      <c r="Q30" s="63" t="s">
+      <c r="Q30" s="93" t="s">
         <v>84</v>
       </c>
       <c r="R30" s="28"/>
-      <c r="S30" s="61"/>
+      <c r="S30" s="89"/>
       <c r="T30" s="28"/>
-      <c r="U30" s="61"/>
+      <c r="U30" s="89"/>
       <c r="V30" s="28"/>
-      <c r="W30" s="61"/>
+      <c r="W30" s="89"/>
       <c r="X30" s="28"/>
-      <c r="Y30" s="61"/>
+      <c r="Y30" s="89"/>
       <c r="Z30" s="28"/>
     </row>
     <row r="31" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="94" t="s">
         <v>78</v>
       </c>
       <c r="D31" s="29">
         <f>(F31+F32)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="94" t="s">
         <v>79</v>
       </c>
       <c r="F31" s="22"/>
-      <c r="G31" s="62"/>
+      <c r="G31" s="90"/>
       <c r="H31" s="22"/>
-      <c r="I31" s="64"/>
+      <c r="I31" s="94"/>
       <c r="J31" s="22"/>
-      <c r="K31" s="64"/>
+      <c r="K31" s="94"/>
       <c r="L31" s="22"/>
-      <c r="M31" s="64"/>
+      <c r="M31" s="94"/>
       <c r="N31" s="22"/>
-      <c r="O31" s="64"/>
+      <c r="O31" s="94"/>
       <c r="P31" s="22"/>
-      <c r="Q31" s="64"/>
+      <c r="Q31" s="94"/>
       <c r="R31" s="22"/>
-      <c r="S31" s="62"/>
+      <c r="S31" s="90"/>
       <c r="T31" s="22"/>
-      <c r="U31" s="62"/>
+      <c r="U31" s="90"/>
       <c r="V31" s="22"/>
-      <c r="W31" s="62"/>
+      <c r="W31" s="90"/>
       <c r="X31" s="22"/>
-      <c r="Y31" s="62"/>
+      <c r="Y31" s="90"/>
       <c r="Z31" s="22"/>
     </row>
     <row r="32" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5891,82 +5907,82 @@
       <c r="Z32" s="20"/>
     </row>
     <row r="33" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="93" t="s">
         <v>85</v>
       </c>
       <c r="D33" s="28"/>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="93" t="s">
         <v>86</v>
       </c>
       <c r="F33" s="28"/>
-      <c r="G33" s="63" t="s">
+      <c r="G33" s="93" t="s">
         <v>87</v>
       </c>
       <c r="H33" s="28"/>
-      <c r="I33" s="63" t="s">
+      <c r="I33" s="93" t="s">
         <v>88</v>
       </c>
       <c r="J33" s="28"/>
-      <c r="K33" s="63" t="s">
+      <c r="K33" s="93" t="s">
         <v>89</v>
       </c>
       <c r="L33" s="28"/>
-      <c r="M33" s="63" t="s">
+      <c r="M33" s="93" t="s">
         <v>90</v>
       </c>
       <c r="N33" s="28"/>
-      <c r="O33" s="63" t="s">
+      <c r="O33" s="93" t="s">
         <v>91</v>
       </c>
       <c r="P33" s="28"/>
-      <c r="Q33" s="63" t="s">
+      <c r="Q33" s="93" t="s">
         <v>92</v>
       </c>
       <c r="R33" s="28"/>
-      <c r="S33" s="63" t="s">
+      <c r="S33" s="93" t="s">
         <v>93</v>
       </c>
       <c r="T33" s="28"/>
-      <c r="U33" s="61"/>
+      <c r="U33" s="89"/>
       <c r="V33" s="28"/>
-      <c r="W33" s="61"/>
+      <c r="W33" s="89"/>
       <c r="X33" s="28"/>
-      <c r="Y33" s="61"/>
+      <c r="Y33" s="89"/>
       <c r="Z33" s="28"/>
     </row>
     <row r="34" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="64"/>
+      <c r="C34" s="94"/>
       <c r="D34" s="22">
         <f>(F35+F34)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="64"/>
+      <c r="E34" s="94"/>
       <c r="F34" s="22">
         <f>(H35+H34)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="64"/>
+      <c r="G34" s="94"/>
       <c r="H34" s="22"/>
-      <c r="I34" s="64"/>
+      <c r="I34" s="94"/>
       <c r="J34" s="22"/>
-      <c r="K34" s="64"/>
+      <c r="K34" s="94"/>
       <c r="L34" s="22"/>
-      <c r="M34" s="64"/>
+      <c r="M34" s="94"/>
       <c r="N34" s="22"/>
-      <c r="O34" s="64"/>
+      <c r="O34" s="94"/>
       <c r="P34" s="22"/>
-      <c r="Q34" s="64"/>
+      <c r="Q34" s="94"/>
       <c r="R34" s="22"/>
-      <c r="S34" s="64"/>
+      <c r="S34" s="94"/>
       <c r="T34" s="22">
         <f>(T38+T37)</f>
         <v>0</v>
       </c>
-      <c r="U34" s="62"/>
+      <c r="U34" s="90"/>
       <c r="V34" s="22"/>
-      <c r="W34" s="62"/>
+      <c r="W34" s="90"/>
       <c r="X34" s="22"/>
-      <c r="Y34" s="62"/>
+      <c r="Y34" s="90"/>
       <c r="Z34" s="22"/>
     </row>
     <row r="35" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6023,77 +6039,77 @@
       <c r="Z35" s="20"/>
     </row>
     <row r="36" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="93" t="s">
         <v>94</v>
       </c>
       <c r="D36" s="28"/>
-      <c r="E36" s="63" t="s">
+      <c r="E36" s="93" t="s">
         <v>95</v>
       </c>
       <c r="F36" s="28"/>
-      <c r="G36" s="63" t="s">
+      <c r="G36" s="93" t="s">
         <v>96</v>
       </c>
       <c r="H36" s="28"/>
-      <c r="I36" s="61" t="s">
+      <c r="I36" s="89" t="s">
         <v>97</v>
       </c>
       <c r="J36" s="28"/>
-      <c r="K36" s="61" t="s">
+      <c r="K36" s="89" t="s">
         <v>98</v>
       </c>
       <c r="L36" s="28"/>
-      <c r="M36" s="61" t="s">
+      <c r="M36" s="89" t="s">
         <v>99</v>
       </c>
       <c r="N36" s="28"/>
-      <c r="O36" s="61" t="s">
+      <c r="O36" s="89" t="s">
         <v>100</v>
       </c>
       <c r="P36" s="28"/>
-      <c r="Q36" s="61"/>
+      <c r="Q36" s="89"/>
       <c r="R36" s="28"/>
-      <c r="S36" s="63" t="s">
+      <c r="S36" s="93" t="s">
         <v>101</v>
       </c>
       <c r="T36" s="28"/>
-      <c r="U36" s="61"/>
+      <c r="U36" s="89"/>
       <c r="V36" s="28"/>
-      <c r="W36" s="61"/>
+      <c r="W36" s="89"/>
       <c r="X36" s="28"/>
-      <c r="Y36" s="61"/>
+      <c r="Y36" s="89"/>
       <c r="Z36" s="28"/>
     </row>
     <row r="37" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="64"/>
+      <c r="C37" s="94"/>
       <c r="D37" s="22">
         <f>(F38+F37)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="64"/>
+      <c r="E37" s="94"/>
       <c r="F37" s="22">
         <f>(H38+H37)</f>
         <v>0</v>
       </c>
-      <c r="G37" s="64"/>
+      <c r="G37" s="94"/>
       <c r="H37" s="22"/>
-      <c r="I37" s="62"/>
+      <c r="I37" s="90"/>
       <c r="J37" s="22"/>
-      <c r="K37" s="62"/>
+      <c r="K37" s="90"/>
       <c r="L37" s="22"/>
-      <c r="M37" s="62"/>
+      <c r="M37" s="90"/>
       <c r="N37" s="22"/>
-      <c r="O37" s="62"/>
+      <c r="O37" s="90"/>
       <c r="P37" s="22"/>
-      <c r="Q37" s="62"/>
+      <c r="Q37" s="90"/>
       <c r="R37" s="22"/>
-      <c r="S37" s="64"/>
+      <c r="S37" s="94"/>
       <c r="T37" s="22"/>
-      <c r="U37" s="62"/>
+      <c r="U37" s="90"/>
       <c r="V37" s="22"/>
-      <c r="W37" s="62"/>
+      <c r="W37" s="90"/>
       <c r="X37" s="22"/>
-      <c r="Y37" s="62"/>
+      <c r="Y37" s="90"/>
       <c r="Z37" s="22"/>
     </row>
     <row r="38" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6147,72 +6163,72 @@
       <c r="Z38" s="20"/>
     </row>
     <row r="39" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="93" t="s">
         <v>102</v>
       </c>
       <c r="D39" s="28"/>
-      <c r="E39" s="63" t="s">
+      <c r="E39" s="93" t="s">
         <v>103</v>
       </c>
       <c r="F39" s="28"/>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="93" t="s">
         <v>104</v>
       </c>
       <c r="H39" s="28"/>
-      <c r="I39" s="61" t="s">
+      <c r="I39" s="89" t="s">
         <v>105</v>
       </c>
       <c r="J39" s="28"/>
-      <c r="K39" s="61"/>
+      <c r="K39" s="89"/>
       <c r="L39" s="28"/>
-      <c r="M39" s="61" t="s">
+      <c r="M39" s="89" t="s">
         <v>106</v>
       </c>
       <c r="N39" s="28"/>
-      <c r="O39" s="61" t="s">
+      <c r="O39" s="89" t="s">
         <v>107</v>
       </c>
       <c r="P39" s="28"/>
-      <c r="Q39" s="61" t="s">
+      <c r="Q39" s="89" t="s">
         <v>108</v>
       </c>
       <c r="R39" s="28"/>
-      <c r="S39" s="61"/>
+      <c r="S39" s="89"/>
       <c r="T39" s="28"/>
-      <c r="U39" s="61"/>
+      <c r="U39" s="89"/>
       <c r="V39" s="28"/>
-      <c r="W39" s="61"/>
+      <c r="W39" s="89"/>
       <c r="X39" s="28"/>
-      <c r="Y39" s="61"/>
+      <c r="Y39" s="89"/>
       <c r="Z39" s="28"/>
     </row>
     <row r="40" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C40" s="64"/>
+      <c r="C40" s="94"/>
       <c r="D40" s="22">
         <f>(F41+F40)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="64"/>
+      <c r="E40" s="94"/>
       <c r="F40" s="22"/>
-      <c r="G40" s="64"/>
+      <c r="G40" s="94"/>
       <c r="H40" s="22"/>
-      <c r="I40" s="62"/>
+      <c r="I40" s="90"/>
       <c r="J40" s="22"/>
-      <c r="K40" s="62"/>
+      <c r="K40" s="90"/>
       <c r="L40" s="22"/>
-      <c r="M40" s="62"/>
+      <c r="M40" s="90"/>
       <c r="N40" s="22"/>
-      <c r="O40" s="62"/>
+      <c r="O40" s="90"/>
       <c r="P40" s="22"/>
-      <c r="Q40" s="62"/>
+      <c r="Q40" s="90"/>
       <c r="R40" s="22"/>
-      <c r="S40" s="62"/>
+      <c r="S40" s="90"/>
       <c r="T40" s="22"/>
-      <c r="U40" s="62"/>
+      <c r="U40" s="90"/>
       <c r="V40" s="22"/>
-      <c r="W40" s="62"/>
+      <c r="W40" s="90"/>
       <c r="X40" s="22"/>
-      <c r="Y40" s="62"/>
+      <c r="Y40" s="90"/>
       <c r="Z40" s="22"/>
     </row>
     <row r="41" spans="3:26" x14ac:dyDescent="0.25">
@@ -6260,55 +6276,55 @@
       <c r="Z41" s="20"/>
     </row>
     <row r="42" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C42" s="61"/>
+      <c r="C42" s="89"/>
       <c r="D42" s="28"/>
-      <c r="E42" s="61"/>
+      <c r="E42" s="89"/>
       <c r="F42" s="28"/>
-      <c r="G42" s="61"/>
+      <c r="G42" s="89"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="61"/>
+      <c r="I42" s="89"/>
       <c r="J42" s="28"/>
-      <c r="K42" s="61"/>
+      <c r="K42" s="89"/>
       <c r="L42" s="28"/>
-      <c r="M42" s="61"/>
+      <c r="M42" s="89"/>
       <c r="N42" s="28"/>
-      <c r="O42" s="61"/>
+      <c r="O42" s="89"/>
       <c r="P42" s="28"/>
-      <c r="Q42" s="61"/>
+      <c r="Q42" s="89"/>
       <c r="R42" s="28"/>
-      <c r="S42" s="61"/>
+      <c r="S42" s="89"/>
       <c r="T42" s="28"/>
-      <c r="U42" s="61"/>
+      <c r="U42" s="89"/>
       <c r="V42" s="28"/>
-      <c r="W42" s="61"/>
+      <c r="W42" s="89"/>
       <c r="X42" s="28"/>
-      <c r="Y42" s="61"/>
+      <c r="Y42" s="89"/>
       <c r="Z42" s="28"/>
     </row>
     <row r="43" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C43" s="62"/>
+      <c r="C43" s="90"/>
       <c r="D43" s="22"/>
-      <c r="E43" s="62"/>
+      <c r="E43" s="90"/>
       <c r="F43" s="22"/>
-      <c r="G43" s="62"/>
+      <c r="G43" s="90"/>
       <c r="H43" s="22"/>
-      <c r="I43" s="62"/>
+      <c r="I43" s="90"/>
       <c r="J43" s="22"/>
-      <c r="K43" s="62"/>
+      <c r="K43" s="90"/>
       <c r="L43" s="22"/>
-      <c r="M43" s="62"/>
+      <c r="M43" s="90"/>
       <c r="N43" s="22"/>
-      <c r="O43" s="62"/>
+      <c r="O43" s="90"/>
       <c r="P43" s="22"/>
-      <c r="Q43" s="62"/>
+      <c r="Q43" s="90"/>
       <c r="R43" s="22"/>
-      <c r="S43" s="62"/>
+      <c r="S43" s="90"/>
       <c r="T43" s="22"/>
-      <c r="U43" s="62"/>
+      <c r="U43" s="90"/>
       <c r="V43" s="22"/>
-      <c r="W43" s="62"/>
+      <c r="W43" s="90"/>
       <c r="X43" s="22"/>
-      <c r="Y43" s="62"/>
+      <c r="Y43" s="90"/>
       <c r="Z43" s="22"/>
     </row>
     <row r="44" spans="3:26" x14ac:dyDescent="0.25">
@@ -6339,6 +6355,132 @@
     </row>
   </sheetData>
   <mergeCells count="150">
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="W42:W43"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="U30:U31"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="Y36:Y37"/>
     <mergeCell ref="Y39:Y40"/>
@@ -6363,134 +6505,8 @@
     <mergeCell ref="W17:W18"/>
     <mergeCell ref="W20:W21"/>
     <mergeCell ref="W23:W24"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="W39:W40"/>
-    <mergeCell ref="W42:W43"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O14:O15"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="C10">
     <cfRule type="cellIs" dxfId="303" priority="714" operator="greaterThan">
       <formula>0</formula>
@@ -8041,3439 +8057,3491 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CDEFF5-A914-418A-ABE2-0CF277931A86}">
-  <dimension ref="A1:AL67"/>
+  <dimension ref="A1:AM66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="AA54" sqref="AA54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="86" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="87"/>
-    <col min="6" max="6" width="8.88671875" style="86" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="87"/>
+    <col min="1" max="1" width="11.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="67" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="67"/>
+    <col min="6" max="6" width="8.88671875" style="67" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:39" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="S1" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="U1" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="V1" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="W1" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="X1" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="85" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="85" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="F1" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" s="85" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="85" t="s">
-        <v>199</v>
-      </c>
-      <c r="K1" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="L1" s="85" t="s">
-        <v>166</v>
-      </c>
-      <c r="M1" s="85" t="s">
-        <v>188</v>
-      </c>
-      <c r="N1" s="85" t="s">
-        <v>176</v>
-      </c>
-      <c r="O1" s="85" t="s">
-        <v>184</v>
-      </c>
-      <c r="P1" s="85" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q1" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="R1" s="85" t="s">
-        <v>182</v>
-      </c>
-      <c r="S1" s="85" t="s">
-        <v>146</v>
-      </c>
-      <c r="T1" s="85" t="s">
+      <c r="Y1" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z1" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA1" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD1" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="U1" s="85" t="s">
-        <v>167</v>
-      </c>
-      <c r="V1" s="85" t="s">
-        <v>227</v>
-      </c>
-      <c r="W1" s="85" t="s">
-        <v>175</v>
-      </c>
-      <c r="X1" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y1" s="85" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z1" s="85" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA1" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB1" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC1" s="85" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD1" s="85" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE1" s="85" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF1" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="AG1" s="85" t="s">
-        <v>244</v>
-      </c>
-      <c r="AH1" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI1" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="AJ1" s="85" t="s">
-        <v>219</v>
-      </c>
-      <c r="AK1" s="85" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL1" s="85" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="AE1" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF1" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG1" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH1" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI1" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ1" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK1" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL1" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM1" s="66" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="67">
+        <v>2</v>
+      </c>
+      <c r="H2" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="G2" s="87">
-        <v>2</v>
-      </c>
-      <c r="H2" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="86" t="str">
+      <c r="B3" s="67" t="str">
         <f>A2</f>
         <v>黄带</v>
       </c>
-      <c r="K3" s="87">
+      <c r="K3" s="67">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="86" t="str">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="67" t="str">
         <f>A3</f>
         <v>绿带</v>
       </c>
-      <c r="L4" s="87">
+      <c r="L4" s="67">
         <v>1</v>
       </c>
-      <c r="AC4" s="87">
+      <c r="AC4" s="67">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
-        <v>200</v>
-      </c>
-      <c r="G5" s="87">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="67">
         <v>1</v>
       </c>
-      <c r="N5" s="87">
+      <c r="N5" s="67">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="86" t="str">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="67" t="str">
         <f>A5</f>
         <v>黄爪</v>
       </c>
-      <c r="J6" s="87">
+      <c r="J6" s="67">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" s="86" t="str">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="67" t="str">
         <f>A6</f>
         <v>绿爪</v>
       </c>
-      <c r="K7" s="87">
+      <c r="K7" s="67">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="86" t="str">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="67" t="str">
         <f>A7</f>
         <v>蓝爪</v>
       </c>
-      <c r="L8" s="87">
+      <c r="L8" s="67">
         <v>1</v>
       </c>
-      <c r="O8" s="87">
+      <c r="O8" s="67">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="s">
-        <v>230</v>
-      </c>
-      <c r="E9" s="87">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="67">
         <v>2</v>
       </c>
-      <c r="G9" s="87">
+      <c r="G9" s="67">
         <v>4</v>
       </c>
-      <c r="I9" s="87">
+      <c r="I9" s="67">
         <v>2</v>
       </c>
-      <c r="N9" s="87">
+      <c r="N9" s="67">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="86" t="str">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="67" t="str">
         <f>A9</f>
         <v>电弧熔炉</v>
       </c>
-      <c r="U10" s="87">
+      <c r="U10" s="67">
         <v>5</v>
       </c>
-      <c r="AF10" s="87">
+      <c r="AF10" s="67">
         <v>4</v>
       </c>
-      <c r="AK10" s="87">
+      <c r="AL10" s="67">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" s="86" t="str">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="67" t="str">
         <f>A10</f>
         <v>位面熔炉</v>
       </c>
-      <c r="O11" s="87">
+      <c r="O11" s="67">
         <v>4</v>
       </c>
-      <c r="AL11" s="87">
+      <c r="AM11" s="67">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
-        <v>235</v>
-      </c>
-      <c r="G12" s="87">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="67">
         <v>4</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="67">
         <v>8</v>
       </c>
-      <c r="N12" s="87">
+      <c r="N12" s="67">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="94" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="86" t="str">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="67" t="str">
         <f>A12</f>
         <v>一级台</v>
       </c>
-      <c r="O13" s="87">
+      <c r="O13" s="67">
         <v>4</v>
       </c>
-      <c r="AC13" s="87">
+      <c r="AC13" s="67">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="94" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" s="86" t="str">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="67" t="str">
         <f>A13</f>
         <v>二级台</v>
       </c>
-      <c r="P14" s="87">
+      <c r="P14" s="67">
         <v>2</v>
       </c>
-      <c r="AE14" s="87">
+      <c r="AE14" s="67">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="94" t="s">
-        <v>239</v>
-      </c>
-      <c r="B15" s="86" t="str">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="67" t="str">
         <f>A14</f>
         <v>三级台</v>
       </c>
-      <c r="P15" s="87">
+      <c r="P15" s="67">
         <v>4</v>
       </c>
-      <c r="AL15" s="87">
+      <c r="AM15" s="67">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="94" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" s="87">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="67">
         <v>4</v>
       </c>
-      <c r="G16" s="87">
+      <c r="G16" s="67">
         <v>8</v>
       </c>
-      <c r="I16" s="87">
+      <c r="I16" s="67">
         <v>4</v>
       </c>
-      <c r="N16" s="87">
+      <c r="N16" s="67">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
-        <v>241</v>
-      </c>
-      <c r="B17" s="86" t="str">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="67" t="str">
         <f>A16</f>
         <v>研究站</v>
       </c>
-      <c r="P17" s="87">
+      <c r="P17" s="67">
         <v>4</v>
       </c>
-      <c r="AL17" s="87">
+      <c r="AM17" s="67">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A18" s="94" t="s">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="67">
+        <v>10</v>
+      </c>
+      <c r="F18" s="67">
+        <v>10</v>
+      </c>
+      <c r="N18" s="67">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="67">
+        <v>4</v>
+      </c>
+      <c r="E19" s="67">
+        <v>4</v>
+      </c>
+      <c r="F19" s="67">
+        <v>8</v>
+      </c>
+      <c r="O19" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="67">
+        <v>8</v>
+      </c>
+      <c r="E20" s="67">
+        <v>8</v>
+      </c>
+      <c r="F20" s="67">
+        <v>8</v>
+      </c>
+      <c r="N20" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="E18" s="87">
-        <v>10</v>
-      </c>
-      <c r="F18" s="86">
-        <v>10</v>
-      </c>
-      <c r="N18" s="87">
-        <v>6</v>
-      </c>
-      <c r="Q18" s="87">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A19" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="87">
-        <v>4</v>
-      </c>
-      <c r="E19" s="87">
-        <v>4</v>
-      </c>
-      <c r="F19" s="86">
-        <v>8</v>
-      </c>
-      <c r="O19" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A20" s="94" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="87">
-        <v>8</v>
-      </c>
-      <c r="E20" s="87">
-        <v>8</v>
-      </c>
-      <c r="F20" s="86">
-        <v>8</v>
-      </c>
-      <c r="N20" s="87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
-        <v>226</v>
-      </c>
-      <c r="B21" s="86" t="str">
+      <c r="B21" s="67" t="str">
         <f>A20</f>
         <v>化工厂</v>
       </c>
-      <c r="P21" s="87">
+      <c r="P21" s="67">
         <v>3</v>
       </c>
-      <c r="V21" s="87">
+      <c r="V21" s="67">
         <v>10</v>
       </c>
-      <c r="AH21" s="87">
+      <c r="AH21" s="67">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
-        <v>229</v>
-      </c>
-      <c r="L22" s="87">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" s="67">
         <v>25</v>
       </c>
-      <c r="O22" s="87">
+      <c r="O22" s="67">
         <v>8</v>
       </c>
-      <c r="T22" s="87">
+      <c r="T22" s="67">
         <v>20</v>
       </c>
-      <c r="U22" s="87">
+      <c r="U22" s="67">
         <v>20</v>
       </c>
-      <c r="AC22" s="87">
+      <c r="AC22" s="67">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A23" s="94" t="s">
-        <v>207</v>
-      </c>
-      <c r="F23" s="86">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="67">
         <v>4</v>
       </c>
-      <c r="N23" s="87">
+      <c r="N23" s="67">
         <v>2</v>
       </c>
-      <c r="Q23" s="87">
+      <c r="Q23" s="67">
         <v>2</v>
       </c>
-      <c r="Y23" s="87">
+      <c r="Y23" s="67">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A24" s="92" t="s">
-        <v>242</v>
-      </c>
-      <c r="F24" s="86">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="67">
         <v>20</v>
       </c>
-      <c r="H24" s="87">
+      <c r="L24" s="67">
         <v>20</v>
       </c>
-      <c r="L24" s="87">
+      <c r="O24" s="67">
+        <v>5</v>
+      </c>
+      <c r="R24" s="67">
         <v>10</v>
       </c>
-      <c r="O24" s="87">
+      <c r="W24" s="67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="F25" s="67">
+        <v>20</v>
+      </c>
+      <c r="H25" s="67">
+        <v>20</v>
+      </c>
+      <c r="L25" s="67">
+        <v>10</v>
+      </c>
+      <c r="O25" s="67">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A25" s="92" t="s">
-        <v>243</v>
-      </c>
-      <c r="P25" s="87">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="P26" s="67">
         <v>10</v>
       </c>
-      <c r="T25" s="87">
+      <c r="T26" s="67">
         <v>80</v>
       </c>
-      <c r="U25" s="87">
+      <c r="U26" s="67">
         <v>30</v>
       </c>
-      <c r="AG25" s="87">
+      <c r="AG26" s="67">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A26" s="92" t="s">
-        <v>189</v>
-      </c>
-      <c r="F26" s="86">
-        <v>20</v>
-      </c>
-      <c r="L26" s="87">
-        <v>20</v>
-      </c>
-      <c r="O26" s="87">
-        <v>5</v>
-      </c>
-      <c r="R26" s="87">
-        <v>10</v>
-      </c>
-      <c r="W26" s="87">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A27" s="93" t="s">
-        <v>161</v>
-      </c>
-      <c r="G27" s="87">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="67">
         <v>2</v>
       </c>
-      <c r="I27" s="87">
+      <c r="I27" s="67">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A28" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="86" t="str">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="67" t="str">
         <f>A27</f>
         <v>一级电线杆</v>
       </c>
-      <c r="Q28" s="87">
+      <c r="Q28" s="67">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="B29" s="86" t="str">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="67" t="str">
         <f>A28</f>
         <v>二级电线杆</v>
       </c>
-      <c r="L29" s="87">
+      <c r="L29" s="67">
         <v>10</v>
       </c>
-      <c r="U29" s="87">
+      <c r="U29" s="67">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A30" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="87">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="67">
         <v>6</v>
       </c>
-      <c r="H30" s="87">
+      <c r="H30" s="67">
         <v>1</v>
       </c>
-      <c r="I30" s="87">
+      <c r="I30" s="67">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A31" s="93" t="s">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="67">
+        <v>4</v>
+      </c>
+      <c r="G31" s="67">
+        <v>10</v>
+      </c>
+      <c r="H31" s="67">
+        <v>4</v>
+      </c>
+      <c r="I31" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A32" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="87">
+      <c r="C32" s="67">
+        <v>10</v>
+      </c>
+      <c r="N32" s="67">
+        <v>5</v>
+      </c>
+      <c r="W32" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" s="67">
+        <v>6</v>
+      </c>
+      <c r="L33" s="67">
+        <v>1</v>
+      </c>
+      <c r="X33" s="67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="67">
+        <v>20</v>
+      </c>
+      <c r="F34" s="67">
+        <v>15</v>
+      </c>
+      <c r="L34" s="67">
+        <v>1</v>
+      </c>
+      <c r="R34" s="67">
         <v>4</v>
       </c>
-      <c r="G31" s="87">
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A35" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="L35" s="67">
         <v>10</v>
       </c>
-      <c r="H31" s="87">
+      <c r="O35" s="67">
         <v>4</v>
       </c>
-      <c r="I31" s="87">
+      <c r="T35" s="67">
+        <v>12</v>
+      </c>
+      <c r="AD35" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A36" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="F36" s="67">
+        <v>40</v>
+      </c>
+      <c r="M36" s="67">
+        <v>8</v>
+      </c>
+      <c r="O36" s="67">
+        <v>40</v>
+      </c>
+      <c r="T36" s="67">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A37" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="P37" s="67">
+        <v>10</v>
+      </c>
+      <c r="T37" s="67">
+        <v>20</v>
+      </c>
+      <c r="U37" s="67">
+        <v>20</v>
+      </c>
+      <c r="AJ37" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A38" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="G38" s="67">
+        <v>8</v>
+      </c>
+      <c r="O38" s="67">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A32" s="93" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" s="86">
+      <c r="Q38" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A39" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="F39" s="67">
+        <v>40</v>
+      </c>
+      <c r="M39" s="67">
+        <v>20</v>
+      </c>
+      <c r="O39" s="67">
+        <v>40</v>
+      </c>
+      <c r="S39" s="67">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A40" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="67" t="str">
+        <f>A39</f>
+        <v>行星物流塔</v>
+      </c>
+      <c r="M40" s="67">
+        <v>20</v>
+      </c>
+      <c r="T40" s="67">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A41" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="67" t="str">
+        <f>A40&amp;"+"&amp;A33</f>
+        <v>星际物流塔+电池</v>
+      </c>
+      <c r="L41" s="67">
+        <v>50</v>
+      </c>
+      <c r="AB41" s="67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A42" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="G42" s="67">
+        <v>2</v>
+      </c>
+      <c r="O42" s="67">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A43" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="G43" s="67">
+        <v>5</v>
+      </c>
+      <c r="O43" s="67">
+        <v>2</v>
+      </c>
+      <c r="AA43" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A44" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="O44" s="67">
         <v>10</v>
       </c>
-      <c r="N32" s="87">
+      <c r="T44" s="67">
+        <v>10</v>
+      </c>
+      <c r="AB44" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A45" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="G45" s="67">
+        <v>4</v>
+      </c>
+      <c r="H45" s="67">
+        <v>2</v>
+      </c>
+      <c r="I45" s="67">
+        <v>2</v>
+      </c>
+      <c r="N45" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A46" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="L46" s="67">
+        <v>10</v>
+      </c>
+      <c r="P46" s="67">
+        <v>4</v>
+      </c>
+      <c r="T46" s="67">
+        <v>20</v>
+      </c>
+      <c r="U46" s="67">
+        <v>10</v>
+      </c>
+      <c r="AK46" s="67">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A47" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="E47" s="67">
+        <v>4</v>
+      </c>
+      <c r="G47" s="67">
+        <v>8</v>
+      </c>
+      <c r="J47" s="67">
+        <v>4</v>
+      </c>
+      <c r="N47" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A48" s="76" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" s="67">
+        <v>12</v>
+      </c>
+      <c r="F48" s="67">
+        <v>12</v>
+      </c>
+      <c r="N48" s="67">
+        <v>6</v>
+      </c>
+      <c r="Q48" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A49" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="G49" s="67">
+        <v>3</v>
+      </c>
+      <c r="H49" s="67">
+        <v>2</v>
+      </c>
+      <c r="N49" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A50" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="F50" s="67">
+        <v>3</v>
+      </c>
+      <c r="H50" s="67">
+        <v>4</v>
+      </c>
+      <c r="L50" s="67">
+        <v>1</v>
+      </c>
+      <c r="O50" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A51" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="67">
+        <v>1</v>
+      </c>
+      <c r="G51" s="67">
+        <v>3</v>
+      </c>
+      <c r="H51" s="67">
+        <v>2</v>
+      </c>
+      <c r="N51" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A52" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="E52" s="67">
+        <v>4</v>
+      </c>
+      <c r="G52" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A53" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="E53" s="67">
+        <v>8</v>
+      </c>
+      <c r="F53" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A54" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="D54" s="67">
+        <v>4</v>
+      </c>
+      <c r="E54" s="67">
+        <v>4</v>
+      </c>
+      <c r="G54" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A55" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="G55" s="67">
+        <v>8</v>
+      </c>
+      <c r="H55" s="67">
+        <v>8</v>
+      </c>
+      <c r="I55" s="67">
+        <v>2</v>
+      </c>
+      <c r="N55" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A56" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="F56" s="67">
+        <v>8</v>
+      </c>
+      <c r="J56" s="67">
+        <v>6</v>
+      </c>
+      <c r="N56" s="67">
+        <v>12</v>
+      </c>
+      <c r="Z56" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A57" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="F57" s="67">
+        <v>10</v>
+      </c>
+      <c r="J57" s="67">
+        <v>8</v>
+      </c>
+      <c r="L57" s="67">
+        <v>2</v>
+      </c>
+      <c r="N57" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A58" s="70" t="s">
+        <v>246</v>
+      </c>
+      <c r="F58" s="67">
+        <v>9</v>
+      </c>
+      <c r="N58" s="67">
+        <v>6</v>
+      </c>
+      <c r="Q58" s="67">
+        <v>6</v>
+      </c>
+      <c r="R58" s="67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A59" s="70" t="s">
+        <v>247</v>
+      </c>
+      <c r="L59" s="67">
+        <v>10</v>
+      </c>
+      <c r="O59" s="67">
         <v>5</v>
       </c>
-      <c r="W32" s="87">
+      <c r="Q59" s="67">
+        <v>5</v>
+      </c>
+      <c r="T59" s="67">
+        <v>20</v>
+      </c>
+      <c r="V59" s="67">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="G33" s="87">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A60" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F60" s="67">
+        <v>15</v>
+      </c>
+      <c r="L60" s="67">
+        <v>5</v>
+      </c>
+      <c r="O60" s="67">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A61" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="F61" s="67">
+        <v>12</v>
+      </c>
+      <c r="N61" s="67">
+        <v>18</v>
+      </c>
+      <c r="Y61" s="67">
         <v>6</v>
       </c>
-      <c r="L33" s="87">
-        <v>1</v>
-      </c>
-      <c r="X33" s="87">
+      <c r="Z61" s="67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A62" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" s="67">
+        <v>12</v>
+      </c>
+      <c r="O62" s="67">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A34" s="93" t="s">
-        <v>180</v>
-      </c>
-      <c r="C34" s="86">
-        <v>20</v>
-      </c>
-      <c r="F34" s="86">
-        <v>15</v>
-      </c>
-      <c r="L34" s="87">
-        <v>1</v>
-      </c>
-      <c r="R34" s="87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="93" t="s">
-        <v>186</v>
-      </c>
-      <c r="L35" s="87">
-        <v>10</v>
-      </c>
-      <c r="O35" s="87">
-        <v>4</v>
-      </c>
-      <c r="T35" s="87">
-        <v>12</v>
-      </c>
-      <c r="AD35" s="87">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="F36" s="86">
-        <v>40</v>
-      </c>
-      <c r="M36" s="87">
-        <v>8</v>
-      </c>
-      <c r="O36" s="87">
-        <v>40</v>
-      </c>
-      <c r="T36" s="87">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A37" s="98" t="s">
-        <v>191</v>
-      </c>
-      <c r="M37" s="87">
-        <v>1</v>
-      </c>
-      <c r="O37" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="B38" s="86" t="str">
-        <f>A37</f>
-        <v>约束球</v>
-      </c>
-      <c r="P38" s="87">
-        <v>10</v>
-      </c>
-      <c r="T38" s="87">
-        <v>20</v>
-      </c>
-      <c r="U38" s="87">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A39" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="G39" s="87">
-        <v>8</v>
-      </c>
-      <c r="O39" s="87">
-        <v>4</v>
-      </c>
-      <c r="Q39" s="87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A40" s="91" t="s">
-        <v>213</v>
-      </c>
-      <c r="F40" s="86">
-        <v>40</v>
-      </c>
-      <c r="M40" s="87">
-        <v>20</v>
-      </c>
-      <c r="O40" s="87">
-        <v>40</v>
-      </c>
-      <c r="S40" s="87">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A41" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="B41" s="86" t="str">
-        <f>A40</f>
-        <v>行星物流塔</v>
-      </c>
-      <c r="M41" s="87">
-        <v>20</v>
-      </c>
-      <c r="T41" s="87">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A42" s="91" t="s">
-        <v>215</v>
-      </c>
-      <c r="B42" s="86" t="str">
-        <f>A41&amp;"+"&amp;A33</f>
-        <v>星际物流塔+电池</v>
-      </c>
-      <c r="L42" s="87">
-        <v>50</v>
-      </c>
-      <c r="AB42" s="87">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A43" s="91" t="s">
-        <v>258</v>
-      </c>
-      <c r="G43" s="87">
-        <v>2</v>
-      </c>
-      <c r="O43" s="87">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A44" s="91" t="s">
-        <v>260</v>
-      </c>
-      <c r="G44" s="87">
-        <v>5</v>
-      </c>
-      <c r="O44" s="87">
-        <v>2</v>
-      </c>
-      <c r="AA44" s="87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A45" s="91" t="s">
-        <v>261</v>
-      </c>
-      <c r="B45" s="86" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O45" s="87">
-        <v>10</v>
-      </c>
-      <c r="T45" s="87">
-        <v>10</v>
-      </c>
-      <c r="AB45" s="87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A46" s="96" t="s">
-        <v>217</v>
-      </c>
-      <c r="G46" s="87">
-        <v>4</v>
-      </c>
-      <c r="H46" s="87">
-        <v>2</v>
-      </c>
-      <c r="I46" s="87">
-        <v>2</v>
-      </c>
-      <c r="N46" s="87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A47" s="96" t="s">
-        <v>218</v>
-      </c>
-      <c r="L47" s="87">
-        <v>10</v>
-      </c>
-      <c r="P47" s="87">
-        <v>4</v>
-      </c>
-      <c r="T47" s="87">
-        <v>20</v>
-      </c>
-      <c r="U47" s="87">
-        <v>10</v>
-      </c>
-      <c r="AJ47" s="87">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A48" s="96" t="s">
-        <v>221</v>
-      </c>
-      <c r="E48" s="87">
-        <v>4</v>
-      </c>
-      <c r="G48" s="87">
-        <v>8</v>
-      </c>
-      <c r="J48" s="87">
-        <v>4</v>
-      </c>
-      <c r="N48" s="87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A49" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="E49" s="87">
-        <v>12</v>
-      </c>
-      <c r="F49" s="86">
-        <v>12</v>
-      </c>
-      <c r="N49" s="87">
+      <c r="Q62" s="67">
+        <v>9</v>
+      </c>
+      <c r="AI62" s="67">
         <v>6</v>
       </c>
-      <c r="Q49" s="87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A50" s="97" t="s">
-        <v>204</v>
-      </c>
-      <c r="G50" s="87">
-        <v>3</v>
-      </c>
-      <c r="H50" s="87">
-        <v>2</v>
-      </c>
-      <c r="N50" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A51" s="97" t="s">
-        <v>205</v>
-      </c>
-      <c r="F51" s="86">
-        <v>3</v>
-      </c>
-      <c r="H51" s="87">
-        <v>4</v>
-      </c>
-      <c r="L51" s="87">
-        <v>1</v>
-      </c>
-      <c r="O51" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A52" s="97" t="s">
-        <v>206</v>
-      </c>
-      <c r="D52" s="87">
-        <v>1</v>
-      </c>
-      <c r="G52" s="87">
-        <v>3</v>
-      </c>
-      <c r="H52" s="87">
-        <v>2</v>
-      </c>
-      <c r="N52" s="87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A53" s="97" t="s">
-        <v>209</v>
-      </c>
-      <c r="E53" s="87">
-        <v>4</v>
-      </c>
-      <c r="G53" s="87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A54" s="97" t="s">
-        <v>210</v>
-      </c>
-      <c r="E54" s="87">
-        <v>8</v>
-      </c>
-      <c r="F54" s="86">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A55" s="97" t="s">
-        <v>211</v>
-      </c>
-      <c r="D55" s="87">
-        <v>4</v>
-      </c>
-      <c r="E55" s="87">
-        <v>4</v>
-      </c>
-      <c r="G55" s="87">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A56" s="90" t="s">
-        <v>245</v>
-      </c>
-      <c r="G56" s="87">
-        <v>8</v>
-      </c>
-      <c r="H56" s="87">
-        <v>8</v>
-      </c>
-      <c r="I56" s="87">
-        <v>2</v>
-      </c>
-      <c r="N56" s="87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A57" s="90" t="s">
-        <v>246</v>
-      </c>
-      <c r="B57" s="86" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F57" s="86">
-        <v>8</v>
-      </c>
-      <c r="J57" s="87">
-        <v>6</v>
-      </c>
-      <c r="N57" s="87">
-        <v>12</v>
-      </c>
-      <c r="Z57" s="87">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A58" s="90" t="s">
-        <v>249</v>
-      </c>
-      <c r="F58" s="86">
-        <v>10</v>
-      </c>
-      <c r="J58" s="87">
-        <v>8</v>
-      </c>
-      <c r="L58" s="87">
-        <v>2</v>
-      </c>
-      <c r="N58" s="87">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A59" s="90" t="s">
-        <v>250</v>
-      </c>
-      <c r="F59" s="86">
-        <v>9</v>
-      </c>
-      <c r="N59" s="87">
-        <v>6</v>
-      </c>
-      <c r="Q59" s="87">
-        <v>6</v>
-      </c>
-      <c r="R59" s="87">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A60" s="90" t="s">
-        <v>251</v>
-      </c>
-      <c r="L60" s="87">
-        <v>10</v>
-      </c>
-      <c r="O60" s="87">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="87">
-        <v>5</v>
-      </c>
-      <c r="T60" s="87">
-        <v>20</v>
-      </c>
-      <c r="V60" s="87">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A61" s="90" t="s">
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A63" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="F61" s="86">
-        <v>15</v>
-      </c>
-      <c r="L61" s="87">
-        <v>5</v>
-      </c>
-      <c r="O61" s="87">
-        <v>5</v>
-      </c>
-      <c r="Q61" s="87">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A62" s="90" t="s">
-        <v>253</v>
-      </c>
-      <c r="B62" s="86" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F62" s="86">
-        <v>12</v>
-      </c>
-      <c r="N62" s="87">
-        <v>18</v>
-      </c>
-      <c r="Y62" s="87">
-        <v>6</v>
-      </c>
-      <c r="Z62" s="87">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A63" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="C63" s="86">
-        <v>12</v>
-      </c>
-      <c r="O63" s="87">
-        <v>3</v>
-      </c>
-      <c r="Q63" s="87">
-        <v>9</v>
-      </c>
-      <c r="AI63" s="87">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A64" s="90" t="s">
-        <v>256</v>
-      </c>
-      <c r="B64" s="86" t="str">
+      <c r="B63" s="67" t="str">
         <f>A28</f>
         <v>二级电线杆</v>
       </c>
-      <c r="F64" s="86">
+      <c r="F63" s="67">
         <v>12</v>
       </c>
-      <c r="X64" s="87">
+      <c r="X63" s="67">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A65" s="90" t="s">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A64" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="F64" s="67">
+        <v>20</v>
+      </c>
+      <c r="K64" s="67">
+        <v>20</v>
+      </c>
+      <c r="L64" s="67">
+        <v>5</v>
+      </c>
+      <c r="M64" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A66" s="66" t="s">
         <v>257</v>
       </c>
-      <c r="F65" s="86">
-        <v>20</v>
-      </c>
-      <c r="K65" s="87">
-        <v>20</v>
-      </c>
-      <c r="L65" s="87">
+      <c r="C66" s="67">
+        <f>COUNTIF(C27:C64,"&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="D66" s="67">
+        <f>COUNTIF(D2:D64,"&gt;0")</f>
         <v>5</v>
       </c>
-      <c r="M65" s="87">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A67" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="C67" s="86">
-        <f>COUNTIF(C27:C65,"&gt;0")</f>
-        <v>3</v>
-      </c>
-      <c r="D67" s="86">
-        <f>COUNTIF(D2:D65,"&gt;0")</f>
-        <v>5</v>
-      </c>
-      <c r="E67" s="86">
-        <f>COUNTIF(E2:E65,"&gt;0")</f>
+      <c r="E66" s="67">
+        <f>COUNTIF(E2:E64,"&gt;0")</f>
         <v>10</v>
       </c>
-      <c r="F67" s="86">
-        <f>COUNTIF(F2:F65,"&gt;0")</f>
+      <c r="F66" s="67">
+        <f>COUNTIF(F2:F64,"&gt;0")</f>
         <v>19</v>
       </c>
-      <c r="G67" s="86">
-        <f t="shared" ref="G67:AL67" si="0">COUNTIF(G2:G65,"&gt;0")</f>
+      <c r="G66" s="67">
+        <f t="shared" ref="G66:AM66" si="0">COUNTIF(G2:G64,"&gt;0")</f>
         <v>19</v>
       </c>
-      <c r="H67" s="86">
+      <c r="H66" s="67">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I67" s="86">
+      <c r="I66" s="67">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J67" s="86">
+      <c r="J66" s="67">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K67" s="86">
+      <c r="K66" s="67">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L67" s="86">
+      <c r="L66" s="67">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M67" s="86">
+      <c r="M66" s="67">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N67" s="86">
+        <v>4</v>
+      </c>
+      <c r="N66" s="67">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="O67" s="86">
+      <c r="O66" s="67">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="P67" s="86">
+        <v>18</v>
+      </c>
+      <c r="P66" s="67">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Q67" s="86">
+      <c r="Q66" s="67">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="R67" s="86">
+      <c r="R66" s="67">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="S67" s="86">
+      <c r="S66" s="67">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T67" s="86">
+      <c r="T66" s="67">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="U67" s="86">
+      <c r="U66" s="67">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="V67" s="86">
+      <c r="V66" s="67">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="W67" s="86">
+      <c r="W66" s="67">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="X67" s="86">
+      <c r="X66" s="67">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Y67" s="86">
+      <c r="Y66" s="67">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Z67" s="86">
+      <c r="Z66" s="67">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AA67" s="86">
+      <c r="AA66" s="67">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AB67" s="86">
+      <c r="AB66" s="67">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AC67" s="86">
-        <f>COUNTIF(AC2:AC65,"&gt;0")</f>
+      <c r="AC66" s="67">
+        <f>COUNTIF(AC2:AC64,"&gt;0")</f>
         <v>3</v>
       </c>
-      <c r="AD67" s="86">
+      <c r="AD66" s="67">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AE67" s="86">
+      <c r="AE66" s="67">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AF67" s="86">
+      <c r="AF66" s="67">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AG67" s="86">
+      <c r="AG66" s="67">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AH67" s="86">
-        <f>COUNTIF(AH2:AH65,"&gt;0")</f>
+      <c r="AH66" s="67">
+        <f>COUNTIF(AH2:AH64,"&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="AI67" s="86">
+      <c r="AI66" s="67">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ67" s="86">
+      <c r="AK66" s="67">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AK67" s="86">
+      <c r="AL66" s="67">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AL67" s="86">
+      <c r="AM66" s="67">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F523AE78-7C25-45F8-8F6E-43BEE0B788F7}">
-  <dimension ref="A1:S81"/>
+  <dimension ref="B1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="76"/>
+    <col min="1" max="16384" width="8.88671875" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C1" s="76" t="s">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="C1" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="D1" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="E1" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="G1" s="57" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+    <row r="2" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="77">
+      <c r="C2" s="58">
         <v>8736</v>
       </c>
-      <c r="E2" s="76">
-        <f>O12</f>
+      <c r="D2" s="57">
+        <f>N12</f>
         <v>90</v>
       </c>
-      <c r="F2" s="76">
-        <f>D2-E2</f>
+      <c r="E2" s="57">
+        <f>C2-D2</f>
         <v>8646</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="G2" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="H2" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="I2" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="J2" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="K2" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="R2" s="76">
+      <c r="Q2" s="57">
         <v>1875</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C3" s="77" t="s">
+    <row r="3" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="77">
+      <c r="C3" s="58">
         <v>11184</v>
       </c>
-      <c r="E3" s="76">
-        <f>O12/2</f>
-        <v>45</v>
-      </c>
-      <c r="F3" s="76">
-        <f t="shared" ref="F3:F20" si="0">D3-E3</f>
-        <v>11139</v>
-      </c>
-      <c r="H3" s="76">
-        <f>F2+F6+F8+F11+F18</f>
+      <c r="D3" s="57">
+        <f>N12/2+I12*2</f>
+        <v>180</v>
+      </c>
+      <c r="E3" s="57">
+        <f>C3-D3</f>
+        <v>11004</v>
+      </c>
+      <c r="G3" s="57">
+        <f>E2+E6+E8+E11+E18</f>
         <v>24456</v>
       </c>
-      <c r="I3" s="76">
-        <f>F3+F5+F10+F15+F21</f>
-        <v>39117.702484563335</v>
-      </c>
-      <c r="J3" s="76">
-        <f>+F4+F13+F14+F16+F19</f>
-        <v>24560.25</v>
-      </c>
-      <c r="K3" s="76">
-        <f>F7+F9+F12+F17+F20</f>
-        <v>26568.646666666667</v>
-      </c>
-      <c r="L3" s="76">
-        <f>F5</f>
+      <c r="H3" s="57">
+        <f>E3+E5+E10+E15+E21</f>
+        <v>38981.889872763335</v>
+      </c>
+      <c r="I3" s="57">
+        <f>+E4+E13+E14+E16+E19</f>
+        <v>23885.25</v>
+      </c>
+      <c r="J3" s="57">
+        <f>E7+E9+E12+E17+E20</f>
+        <v>26566.846666666668</v>
+      </c>
+      <c r="K3" s="57">
+        <f>E5</f>
         <v>21504</v>
       </c>
-      <c r="R3" s="78">
+      <c r="Q3" s="59">
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="77">
-        <v>8736</v>
-      </c>
-      <c r="C4" s="77" t="s">
+    <row r="4" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="77">
+      <c r="C4" s="58">
         <v>11040</v>
       </c>
-      <c r="E4" s="76">
-        <f>M12*2</f>
+      <c r="D4" s="57">
+        <f>L12*2</f>
         <v>148.5</v>
       </c>
-      <c r="F4" s="76">
-        <f>D4-E4</f>
+      <c r="E4" s="57">
+        <f>C4-D4</f>
         <v>10891.5</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="H4" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="R4" s="76">
+      <c r="Q4" s="57">
         <v>1200</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C5" s="77" t="s">
+    <row r="5" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="77">
+      <c r="C5" s="58">
         <v>21504</v>
       </c>
-      <c r="F5" s="76">
-        <f t="shared" si="0"/>
+      <c r="E5" s="57">
+        <f t="shared" ref="E5:E19" si="0">C5-D5</f>
         <v>21504</v>
       </c>
-      <c r="I5" s="76">
-        <f>F3+F10+F15+F21</f>
-        <v>17613.702484563335</v>
-      </c>
-      <c r="R5" s="76">
+      <c r="H5" s="57">
+        <f>E3+E10+E15+E21</f>
+        <v>17477.889872763335</v>
+      </c>
+      <c r="Q5" s="57">
         <v>1200</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="77" t="s">
+    <row r="6" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B6" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="77">
+      <c r="C6" s="58">
         <v>6720</v>
       </c>
-      <c r="E6" s="76">
-        <f>P12*2</f>
+      <c r="D6" s="57">
+        <f>O12*2</f>
         <v>90</v>
       </c>
-      <c r="F6" s="76">
+      <c r="E6" s="57">
         <f t="shared" si="0"/>
         <v>6630</v>
       </c>
-      <c r="R6" s="76">
-        <f>F2</f>
+      <c r="Q6" s="57">
+        <f>E2</f>
         <v>8646</v>
       </c>
-      <c r="S6" s="76" t="s">
+      <c r="R6" s="57" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C7" s="77" t="s">
+    <row r="7" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="77">
+      <c r="C7" s="58">
         <v>3840</v>
       </c>
-      <c r="E7" s="76">
-        <f>L12*2</f>
+      <c r="D7" s="57">
+        <f>K12*2</f>
         <v>81</v>
       </c>
-      <c r="F7" s="76">
+      <c r="E7" s="57">
         <f t="shared" si="0"/>
         <v>3759</v>
       </c>
-      <c r="Q7" s="76">
+      <c r="P7" s="57">
         <v>11139</v>
       </c>
-      <c r="R7" s="76">
-        <f>F3</f>
-        <v>11139</v>
-      </c>
-      <c r="S7" s="76" t="s">
+      <c r="Q7" s="57">
+        <f>E3</f>
+        <v>11004</v>
+      </c>
+      <c r="R7" s="57" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="77">
-        <v>11184</v>
-      </c>
-      <c r="C8" s="77" t="s">
+    <row r="8" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="77">
+      <c r="C8" s="58">
         <v>1500</v>
       </c>
-      <c r="F8" s="76">
+      <c r="E8" s="57">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="R8" s="76">
+      <c r="Q8" s="57">
         <v>6576</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C9" s="77" t="s">
+    <row r="9" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="77">
+      <c r="C9" s="58">
         <v>10500</v>
       </c>
-      <c r="F9" s="76">
+      <c r="E9" s="57">
         <f t="shared" si="0"/>
         <v>10500</v>
       </c>
-      <c r="R9" s="76">
-        <f>7536-O12</f>
+      <c r="Q9" s="57">
+        <f>7536-N12</f>
         <v>7446</v>
       </c>
-      <c r="S9" s="76" t="s">
+      <c r="R9" s="57" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="77" t="s">
+    <row r="10" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B10" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="77">
+      <c r="C10" s="58">
         <v>4800</v>
       </c>
-      <c r="F10" s="76">
+      <c r="E10" s="57">
         <f t="shared" si="0"/>
         <v>4800</v>
       </c>
-      <c r="R10" s="79">
+      <c r="Q10" s="60">
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C11" s="77" t="s">
+    <row r="11" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="77">
+      <c r="C11" s="58">
         <v>1920</v>
       </c>
-      <c r="F11" s="76">
+      <c r="E11" s="57">
         <f t="shared" si="0"/>
         <v>1920</v>
       </c>
-      <c r="K11" s="76" t="s">
+      <c r="I11" s="108" t="s">
+        <v>186</v>
+      </c>
+      <c r="J11" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="L11" s="76" t="s">
+      <c r="K11" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="M11" s="76" t="s">
+      <c r="L11" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="N11" s="76" t="s">
+      <c r="M11" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="O11" s="76" t="s">
+      <c r="N11" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="P11" s="76" t="s">
+      <c r="O11" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="R11" s="76">
+      <c r="Q11" s="57">
         <v>3360</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="77">
-        <v>11040</v>
-      </c>
-      <c r="C12" s="77" t="s">
+    <row r="12" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="77">
+      <c r="C12" s="58">
         <v>1920</v>
       </c>
-      <c r="E12" s="76">
-        <f>K12</f>
+      <c r="D12" s="57">
+        <f>J12</f>
         <v>18</v>
       </c>
-      <c r="F12" s="76">
+      <c r="E12" s="57">
         <f t="shared" si="0"/>
         <v>1902</v>
       </c>
-      <c r="K12" s="76">
+      <c r="I12" s="108">
+        <f>11.25*6</f>
+        <v>67.5</v>
+      </c>
+      <c r="J12" s="57">
         <f>90-72</f>
         <v>18</v>
       </c>
-      <c r="L12" s="76">
-        <f>90*0.25+K12</f>
+      <c r="K12" s="57">
+        <f>90*0.25+J12</f>
         <v>40.5</v>
       </c>
-      <c r="M12" s="76">
-        <f>22.5+K12+N12*3</f>
+      <c r="L12" s="57">
+        <f>22.5+J12+M12*3</f>
         <v>74.25</v>
       </c>
-      <c r="N12" s="76">
+      <c r="M12" s="57">
         <f>56.25-45</f>
         <v>11.25</v>
       </c>
-      <c r="O12" s="76">
+      <c r="N12" s="57">
         <f>450-360</f>
         <v>90</v>
       </c>
-      <c r="P12" s="76">
+      <c r="O12" s="57">
         <f>22.5*2</f>
         <v>45</v>
       </c>
-      <c r="R12" s="76">
-        <f>F6</f>
+      <c r="Q12" s="57">
+        <f>E6</f>
         <v>6630</v>
       </c>
-      <c r="S12" s="76" t="s">
+      <c r="R12" s="57" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C13" s="77" t="s">
+    <row r="13" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="77">
+      <c r="C13" s="58">
         <v>1920</v>
       </c>
-      <c r="F13" s="76">
+      <c r="E13" s="57">
         <f t="shared" si="0"/>
         <v>1920</v>
       </c>
-      <c r="R13" s="76">
+      <c r="Q13" s="57">
         <f>10500+960*2+1500</f>
         <v>13920</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="77" t="s">
+    <row r="14" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="77">
+      <c r="C14" s="58">
         <v>1200</v>
       </c>
-      <c r="E14" s="76">
-        <f>N12</f>
+      <c r="D14" s="57">
+        <f>M12</f>
         <v>11.25</v>
       </c>
-      <c r="F14" s="76">
+      <c r="E14" s="57">
         <f t="shared" si="0"/>
         <v>1188.75</v>
       </c>
-      <c r="R14" s="80">
+      <c r="Q14" s="61">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C15" s="77" t="s">
+    <row r="15" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B15" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="77">
+      <c r="C15" s="58">
         <v>1560</v>
       </c>
-      <c r="F15" s="76">
+      <c r="E15" s="57">
         <f t="shared" si="0"/>
         <v>1560</v>
       </c>
-      <c r="R15" s="76">
+      <c r="Q15" s="57">
         <v>3120</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="77">
-        <v>21504</v>
-      </c>
-      <c r="C16" s="77" t="s">
+    <row r="16" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B16" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="77">
+      <c r="C16" s="58">
         <v>960</v>
       </c>
-      <c r="F16" s="76">
+      <c r="E16" s="57">
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-      <c r="Q16" s="76">
+      <c r="P16" s="57">
         <v>1200</v>
       </c>
-      <c r="R16" s="76">
+      <c r="Q16" s="57">
         <v>1560</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C17" s="77" t="s">
+    <row r="17" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B17" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="77">
+      <c r="C17" s="58">
         <v>7680</v>
       </c>
-      <c r="F17" s="76">
+      <c r="E17" s="57">
         <f t="shared" si="0"/>
         <v>7680</v>
       </c>
-      <c r="R17" s="76">
-        <f>F14</f>
+      <c r="Q17" s="57">
+        <f>E14</f>
         <v>1188.75</v>
       </c>
-      <c r="S17" s="76" t="s">
+      <c r="R17" s="57" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="77" t="s">
+    <row r="18" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B18" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="77">
+      <c r="C18" s="58">
         <v>5760</v>
       </c>
-      <c r="F18" s="76">
+      <c r="E18" s="57">
         <f t="shared" si="0"/>
         <v>5760</v>
       </c>
-      <c r="R18" s="76">
-        <f>5520-K12-N12*3</f>
+      <c r="Q18" s="57">
+        <f>5520-J12-M12*3</f>
         <v>5468.25</v>
       </c>
-      <c r="S18" s="76" t="s">
+      <c r="R18" s="57" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C19" s="77" t="s">
+    <row r="19" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B19" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="77">
+      <c r="C19" s="58">
         <v>9600</v>
       </c>
-      <c r="F19" s="76">
+      <c r="D19" s="57">
+        <f>I12*10</f>
+        <v>675</v>
+      </c>
+      <c r="E19" s="57">
         <f t="shared" si="0"/>
+        <v>8925</v>
+      </c>
+      <c r="Q19" s="57">
+        <f>E4</f>
+        <v>10891.5</v>
+      </c>
+      <c r="R19" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B20" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="57">
+        <f>P54</f>
+        <v>2725.8466666666668</v>
+      </c>
+      <c r="Q20" s="62">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B21" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="57">
+        <f>SUM(E2:E20)/1000*1.001</f>
+        <v>113.88987276333332</v>
+      </c>
+      <c r="Q21" s="57">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="57">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D23" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="57">
+        <f>SUM(E2:E22)</f>
+        <v>113889.98653943</v>
+      </c>
+      <c r="Q23" s="57">
+        <v>10752</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="57">
+        <v>21504</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q25" s="57">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q26" s="57">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q27" s="57">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q28" s="57">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q29" s="57">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q30" s="57">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q31" s="57">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q32" s="57">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="33" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q33" s="63">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="34" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q34" s="57">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q35" s="57">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q36" s="57">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="37" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q37" s="57">
         <v>9600</v>
       </c>
-      <c r="R19" s="76">
-        <f>F4</f>
-        <v>10891.5</v>
-      </c>
-      <c r="S19" s="76" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="77">
-        <v>6720</v>
-      </c>
-      <c r="C20" s="77" t="s">
+    </row>
+    <row r="38" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q38" s="57">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="39" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q39" s="57">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q40" s="57">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="41" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q41" s="57">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="42" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q42" s="57">
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="43" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q43" s="57">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="44" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q44" s="57">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="45" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q45" s="57">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="46" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q46" s="57">
+        <f>1920-J12</f>
+        <v>1902</v>
+      </c>
+      <c r="R46" s="57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q47" s="57">
+        <f>E7</f>
+        <v>3759</v>
+      </c>
+      <c r="R47" s="57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q48" s="57">
+        <f>E12</f>
+        <v>1902</v>
+      </c>
+      <c r="R48" s="57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q49" s="57">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="50" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q50" s="57">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="51" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q51" s="57">
+        <f>SUM(Q2:Q50)+P7+P16</f>
+        <v>204438.5</v>
+      </c>
+      <c r="R51" s="57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N53" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="F20" s="76">
-        <f>Q54</f>
-        <v>2727.6466666666665</v>
-      </c>
-      <c r="R20" s="81">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C21" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="84" t="s">
-        <v>160</v>
-      </c>
-      <c r="F21" s="76">
-        <f>SUM(F2:F20)/1000*1.001</f>
-        <v>114.70248456333331</v>
-      </c>
-      <c r="R21" s="76">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="R22" s="76">
-        <v>5375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E23" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" s="76">
-        <f>SUM(F2:F22)</f>
-        <v>114702.59915123</v>
-      </c>
-      <c r="R23" s="76">
-        <v>10752</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="77">
-        <v>3840</v>
-      </c>
-      <c r="R24" s="76">
-        <v>21504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R25" s="76">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="R26" s="76">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R27" s="76">
-        <v>5760</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="77">
-        <v>1500</v>
-      </c>
-      <c r="R28" s="76">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R29" s="76">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="R30" s="76">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R31" s="76">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="77">
-        <v>10500</v>
-      </c>
-      <c r="R32" s="76">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R33" s="82">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="R34" s="76">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R35" s="76">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="77">
-        <v>4800</v>
-      </c>
-      <c r="R36" s="76">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R37" s="76">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="R38" s="76">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R39" s="76">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="77">
-        <v>1920</v>
-      </c>
-      <c r="R40" s="76">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R41" s="76">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="R42" s="76">
-        <v>7680</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R43" s="76">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="77">
-        <v>1920</v>
-      </c>
-      <c r="R44" s="76">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R45" s="76">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="R46" s="76">
-        <f>1920-K12</f>
-        <v>1902</v>
-      </c>
-      <c r="S46" s="76" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R47" s="76">
-        <f>F7</f>
-        <v>3759</v>
-      </c>
-      <c r="S47" s="76" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="77">
-        <v>1920</v>
-      </c>
-      <c r="R48" s="76">
-        <f>F12</f>
-        <v>1902</v>
-      </c>
-      <c r="S48" s="76" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R49" s="76">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="R50" s="76">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R51" s="76">
-        <f>SUM(R2:R50)+Q7+Q16</f>
-        <v>204573.5</v>
-      </c>
-      <c r="S51" s="76" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="77">
-        <v>1200</v>
-      </c>
-      <c r="O53" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="P53" s="76" t="s">
+      <c r="O53" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="Q53" s="76" t="s">
+      <c r="P53" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="R53" s="76" t="s">
+      <c r="Q53" s="57" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P54" s="76">
-        <f>R51/60</f>
-        <v>3409.5583333333334</v>
-      </c>
-      <c r="Q54" s="76">
-        <f>R51/75</f>
-        <v>2727.6466666666665</v>
-      </c>
-      <c r="R54" s="76">
-        <f>Q54+Q54/75</f>
-        <v>2764.0152888888888</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="77" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="77">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="77" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="77">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="77" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="77">
-        <v>7680</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="77" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="77">
-        <v>5760</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="77" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="77">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="77" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="77">
-        <v>24636</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="77" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="77">
-        <v>40008</v>
+    <row r="54" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="O54" s="57">
+        <f>Q51/60</f>
+        <v>3407.3083333333334</v>
+      </c>
+      <c r="P54" s="57">
+        <f>Q51/75</f>
+        <v>2725.8466666666668</v>
+      </c>
+      <c r="Q54" s="57">
+        <f>P54+P54/75</f>
+        <v>2762.1912888888892</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3019D6E1-5790-4924-BAC8-83031D67A5C2}">
-  <dimension ref="A1:AI70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DBA1CC-002D-48A9-BD68-A697DCEB1237}">
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="86" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="87"/>
-    <col min="6" max="6" width="8.88671875" style="86" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="87"/>
+    <col min="1" max="1" width="11.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="67" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="67"/>
+    <col min="6" max="6" width="8.88671875" style="67" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:39" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="84" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="S1" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="U1" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="V1" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="W1" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="X1" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="85" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="85" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="F1" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" s="85" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="85" t="s">
-        <v>199</v>
-      </c>
-      <c r="K1" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="L1" s="85" t="s">
+      <c r="Y1" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z1" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA1" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD1" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE1" s="84" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF1" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG1" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH1" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI1" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ1" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK1" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL1" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM1" s="85" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="67">
+        <v>2</v>
+      </c>
+      <c r="G2" s="67">
+        <v>4</v>
+      </c>
+      <c r="I2" s="67">
+        <v>2</v>
+      </c>
+      <c r="N2" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="67" t="str">
+        <f>A2</f>
+        <v>电弧熔炉</v>
+      </c>
+      <c r="U3" s="67">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="67">
+        <v>4</v>
+      </c>
+      <c r="AL3" s="67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="67" t="str">
+        <f>A3</f>
+        <v>位面熔炉</v>
+      </c>
+      <c r="O4" s="67">
+        <v>4</v>
+      </c>
+      <c r="AM4" s="67">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" s="67">
+        <v>4</v>
+      </c>
+      <c r="H5" s="67">
+        <v>8</v>
+      </c>
+      <c r="N5" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="67" t="str">
+        <f>A5</f>
+        <v>一级台</v>
+      </c>
+      <c r="O6" s="67">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="67" t="str">
+        <f>A6</f>
+        <v>二级台</v>
+      </c>
+      <c r="P7" s="67">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="67" t="str">
+        <f>A7</f>
+        <v>三级台</v>
+      </c>
+      <c r="P8" s="67">
+        <v>4</v>
+      </c>
+      <c r="AM8" s="67">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="67">
+        <v>4</v>
+      </c>
+      <c r="G9" s="67">
+        <v>8</v>
+      </c>
+      <c r="I9" s="67">
+        <v>4</v>
+      </c>
+      <c r="N9" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="67" t="str">
+        <f>A9</f>
+        <v>研究站</v>
+      </c>
+      <c r="P10" s="67">
+        <v>4</v>
+      </c>
+      <c r="AM10" s="67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="67">
+        <v>10</v>
+      </c>
+      <c r="F11" s="67">
+        <v>10</v>
+      </c>
+      <c r="N11" s="67">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="67">
+        <v>8</v>
+      </c>
+      <c r="E13" s="67">
+        <v>8</v>
+      </c>
+      <c r="F13" s="67">
+        <v>8</v>
+      </c>
+      <c r="N13" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="67" t="str">
+        <f>A13</f>
+        <v>化工厂</v>
+      </c>
+      <c r="P14" s="67">
+        <v>3</v>
+      </c>
+      <c r="V14" s="67">
+        <v>10</v>
+      </c>
+      <c r="AH14" s="67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="L15" s="67">
+        <v>25</v>
+      </c>
+      <c r="O15" s="67">
+        <v>8</v>
+      </c>
+      <c r="T15" s="67">
+        <v>20</v>
+      </c>
+      <c r="U15" s="67">
+        <v>20</v>
+      </c>
+      <c r="AC15" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" s="67">
+        <v>4</v>
+      </c>
+      <c r="N16" s="67">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="67">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="67">
+        <v>2</v>
+      </c>
+      <c r="I17" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="67" t="str">
+        <f>A17</f>
+        <v>一级电线杆</v>
+      </c>
+      <c r="Q18" s="67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="M1" s="85" t="s">
+      <c r="B19" s="67" t="str">
+        <f>A18</f>
+        <v>二级电线杆</v>
+      </c>
+      <c r="L19" s="67">
+        <v>10</v>
+      </c>
+      <c r="U19" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="N1" s="85" t="s">
+      <c r="P20" s="67">
+        <v>10</v>
+      </c>
+      <c r="T20" s="67">
+        <v>20</v>
+      </c>
+      <c r="U20" s="67">
+        <v>20</v>
+      </c>
+      <c r="AJ20" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="67">
+        <v>20</v>
+      </c>
+      <c r="L21" s="67">
+        <v>20</v>
+      </c>
+      <c r="O21" s="67">
+        <v>5</v>
+      </c>
+      <c r="R21" s="67">
+        <v>10</v>
+      </c>
+      <c r="W21" s="67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" s="67" t="str">
+        <f>A18</f>
+        <v>二级电线杆</v>
+      </c>
+      <c r="F22" s="67">
+        <v>12</v>
+      </c>
+      <c r="X22" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="O1" s="85" t="s">
-        <v>184</v>
-      </c>
-      <c r="P1" s="85" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q1" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="R1" s="85" t="s">
-        <v>182</v>
-      </c>
-      <c r="S1" s="85" t="s">
-        <v>146</v>
-      </c>
-      <c r="T1" s="85" t="s">
-        <v>183</v>
-      </c>
-      <c r="U1" s="85" t="s">
-        <v>167</v>
-      </c>
-      <c r="V1" s="85" t="s">
-        <v>227</v>
-      </c>
-      <c r="W1" s="85" t="s">
-        <v>175</v>
-      </c>
-      <c r="X1" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y1" s="85" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z1" s="85" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA1" s="85" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB1" s="85" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC1" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD1" s="85" t="s">
-        <v>244</v>
-      </c>
-      <c r="AE1" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF1" s="85" t="s">
+      <c r="G23" s="67">
+        <v>6</v>
+      </c>
+      <c r="L23" s="67">
+        <v>1</v>
+      </c>
+      <c r="X23" s="67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="F24" s="67">
+        <v>40</v>
+      </c>
+      <c r="M24" s="67">
+        <v>20</v>
+      </c>
+      <c r="O24" s="67">
+        <v>40</v>
+      </c>
+      <c r="S24" s="67">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="67" t="str">
+        <f>A24</f>
+        <v>行星物流塔</v>
+      </c>
+      <c r="M25" s="67">
+        <v>20</v>
+      </c>
+      <c r="T25" s="67">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="67" t="str">
+        <f>A25&amp;"+"&amp;A23</f>
+        <v>星际物流塔+电池</v>
+      </c>
+      <c r="L26" s="67">
+        <v>50</v>
+      </c>
+      <c r="AB26" s="67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="AG1" s="85" t="s">
+      <c r="G27" s="67">
+        <v>5</v>
+      </c>
+      <c r="O27" s="67">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="O28" s="67">
+        <v>10</v>
+      </c>
+      <c r="T28" s="67">
+        <v>10</v>
+      </c>
+      <c r="AB28" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A29" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="L29" s="67">
+        <v>10</v>
+      </c>
+      <c r="P29" s="67">
+        <v>4</v>
+      </c>
+      <c r="T29" s="67">
+        <v>20</v>
+      </c>
+      <c r="U29" s="67">
+        <v>10</v>
+      </c>
+      <c r="AK29" s="67">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A30" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="E30" s="67">
+        <v>4</v>
+      </c>
+      <c r="G30" s="67">
+        <v>8</v>
+      </c>
+      <c r="J30" s="67">
+        <v>4</v>
+      </c>
+      <c r="N30" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A31" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="AH1" s="85" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI1" s="85" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="87">
+      <c r="E31" s="67">
+        <v>12</v>
+      </c>
+      <c r="F31" s="67">
+        <v>12</v>
+      </c>
+      <c r="N31" s="67">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A32" s="67"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="F33" s="67">
+        <v>20</v>
+      </c>
+      <c r="H33" s="67">
+        <v>20</v>
+      </c>
+      <c r="L33" s="67">
+        <v>10</v>
+      </c>
+      <c r="O33" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="P34" s="67">
+        <v>10</v>
+      </c>
+      <c r="T34" s="67">
+        <v>80</v>
+      </c>
+      <c r="U34" s="67">
+        <v>30</v>
+      </c>
+      <c r="AG34" s="67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A35" s="67"/>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A36" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" s="67">
+        <f>COUNTIF(C17:C35,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="67">
+        <f>COUNTIF(D2:D35,"&gt;0")</f>
         <v>2</v>
       </c>
-      <c r="H2" s="87">
+      <c r="E36" s="67">
+        <f>COUNTIF(E2:E35,"&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="F36" s="67">
+        <f>COUNTIF(F2:F35,"&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="G36" s="67">
+        <f>COUNTIF(G2:G35,"&gt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="H36" s="67">
+        <f>COUNTIF(H2:H35,"&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="I36" s="67">
+        <f>COUNTIF(I2:I35,"&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="J36" s="67">
+        <f>COUNTIF(J2:J35,"&gt;0")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="86" t="str">
-        <f>A2</f>
-        <v>黄带</v>
-      </c>
-      <c r="K3" s="87">
+      <c r="K36" s="67">
+        <f>COUNTIF(K2:K35,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="67">
+        <f>COUNTIF(L2:L35,"&gt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="M36" s="67">
+        <f>COUNTIF(M2:M35,"&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="N36" s="67">
+        <f>COUNTIF(N2:N35,"&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="O36" s="67">
+        <f>COUNTIF(O2:O35,"&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="P36" s="67">
+        <f>COUNTIF(P2:P35,"&gt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="Q36" s="67">
+        <f>COUNTIF(Q2:Q35,"&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="R36" s="67">
+        <f>COUNTIF(R2:R35,"&gt;0")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="86" t="str">
-        <f>A3</f>
-        <v>绿带</v>
-      </c>
-      <c r="L4" s="87">
+      <c r="S36" s="67">
+        <f>COUNTIF(S2:S35,"&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="Z4" s="87">
+      <c r="T36" s="67">
+        <f>COUNTIF(T2:T35,"&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="U36" s="67">
+        <f>COUNTIF(U2:U35,"&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="V36" s="67">
+        <f>COUNTIF(V2:V35,"&gt;0")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
-        <v>200</v>
-      </c>
-      <c r="G5" s="87">
+      <c r="W36" s="67">
+        <f>COUNTIF(W2:W35,"&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="N5" s="87">
+      <c r="X36" s="67">
+        <f>COUNTIF(X2:X35,"&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="Y36" s="67">
+        <f>COUNTIF(Y2:Y35,"&gt;0")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="86" t="str">
-        <f>A5</f>
-        <v>黄爪</v>
-      </c>
-      <c r="J6" s="87">
+      <c r="Z36" s="67">
+        <f>COUNTIF(Z2:Z35,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="67">
+        <f>COUNTIF(AA2:AA35,"&gt;0")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" s="86" t="str">
-        <f>A6</f>
-        <v>绿爪</v>
-      </c>
-      <c r="K7" s="87">
+      <c r="AB36" s="67">
+        <f>COUNTIF(AB2:AB35,"&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="AC36" s="67">
+        <f>COUNTIF(AC2:AC35,"&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="AD36" s="67">
+        <f>COUNTIF(AD2:AD35,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="67">
+        <f>COUNTIF(AE2:AE35,"&gt;0")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="86" t="str">
-        <f>A7</f>
-        <v>蓝爪</v>
-      </c>
-      <c r="L8" s="87">
+      <c r="AF36" s="67">
+        <f>COUNTIF(AF2:AF35,"&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="O8" s="87">
+      <c r="AG36" s="67">
+        <f>COUNTIF(AG2:AG35,"&gt;0")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="s">
-        <v>230</v>
-      </c>
-      <c r="E9" s="87">
-        <v>2</v>
-      </c>
-      <c r="G9" s="87">
-        <v>4</v>
-      </c>
-      <c r="I9" s="87">
-        <v>2</v>
-      </c>
-      <c r="N9" s="87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="86" t="str">
-        <f>A9</f>
-        <v>电弧熔炉</v>
-      </c>
-      <c r="U10" s="87">
-        <v>5</v>
-      </c>
-      <c r="AC10" s="87">
-        <v>4</v>
-      </c>
-      <c r="AH10" s="87">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" s="86" t="str">
-        <f>A10</f>
-        <v>位面熔炉</v>
-      </c>
-      <c r="O11" s="87">
-        <v>4</v>
-      </c>
-      <c r="AI11" s="87">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
-        <v>235</v>
-      </c>
-      <c r="G12" s="87">
-        <v>4</v>
-      </c>
-      <c r="H12" s="87">
-        <v>8</v>
-      </c>
-      <c r="N12" s="87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="94" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="86" t="str">
-        <f>A12</f>
-        <v>一级台</v>
-      </c>
-      <c r="O13" s="87">
-        <v>4</v>
-      </c>
-      <c r="Z13" s="87">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="94" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" s="86" t="str">
-        <f>A13</f>
-        <v>二级台</v>
-      </c>
-      <c r="P14" s="87">
-        <v>2</v>
-      </c>
-      <c r="AB14" s="87">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="94" t="s">
-        <v>239</v>
-      </c>
-      <c r="B15" s="86" t="str">
-        <f>A14</f>
-        <v>三级台</v>
-      </c>
-      <c r="P15" s="87">
-        <v>4</v>
-      </c>
-      <c r="AI15" s="87">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="94" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" s="87">
-        <v>4</v>
-      </c>
-      <c r="G16" s="87">
-        <v>8</v>
-      </c>
-      <c r="I16" s="87">
-        <v>4</v>
-      </c>
-      <c r="N16" s="87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
-        <v>241</v>
-      </c>
-      <c r="B17" s="86" t="str">
-        <f>A16</f>
-        <v>研究站</v>
-      </c>
-      <c r="P17" s="87">
-        <v>4</v>
-      </c>
-      <c r="AI17" s="87">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="E18" s="87">
-        <v>10</v>
-      </c>
-      <c r="F18" s="86">
-        <v>10</v>
-      </c>
-      <c r="N18" s="87">
-        <v>6</v>
-      </c>
-      <c r="Q18" s="87">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="87">
-        <v>4</v>
-      </c>
-      <c r="E19" s="87">
-        <v>4</v>
-      </c>
-      <c r="F19" s="86">
-        <v>8</v>
-      </c>
-      <c r="O19" s="87">
+      <c r="AH36" s="67">
+        <f>COUNTIF(AH2:AH35,"&gt;0")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="94" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="87">
-        <v>8</v>
-      </c>
-      <c r="E20" s="87">
-        <v>8</v>
-      </c>
-      <c r="F20" s="86">
-        <v>8</v>
-      </c>
-      <c r="N20" s="87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
-        <v>226</v>
-      </c>
-      <c r="B21" s="86" t="str">
-        <f>A20</f>
-        <v>化工厂</v>
-      </c>
-      <c r="P21" s="87">
-        <v>3</v>
-      </c>
-      <c r="V21" s="87">
-        <v>10</v>
-      </c>
-      <c r="AE21" s="87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
-        <v>229</v>
-      </c>
-      <c r="L22" s="87">
-        <v>25</v>
-      </c>
-      <c r="O22" s="87">
-        <v>8</v>
-      </c>
-      <c r="T22" s="87">
-        <v>20</v>
-      </c>
-      <c r="U22" s="87">
-        <v>20</v>
-      </c>
-      <c r="Z22" s="87">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="94" t="s">
-        <v>207</v>
-      </c>
-      <c r="F23" s="86">
-        <v>4</v>
-      </c>
-      <c r="N23" s="87">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="87">
-        <v>2</v>
-      </c>
-      <c r="Y23" s="87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" s="92" t="s">
-        <v>242</v>
-      </c>
-      <c r="F24" s="86">
-        <v>20</v>
-      </c>
-      <c r="H24" s="87">
-        <v>20</v>
-      </c>
-      <c r="L24" s="87">
-        <v>10</v>
-      </c>
-      <c r="O24" s="87">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" s="92" t="s">
-        <v>243</v>
-      </c>
-      <c r="P25" s="87">
-        <v>10</v>
-      </c>
-      <c r="T25" s="87">
-        <v>80</v>
-      </c>
-      <c r="U25" s="87">
-        <v>30</v>
-      </c>
-      <c r="AD25" s="87">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="92" t="s">
-        <v>189</v>
-      </c>
-      <c r="F26" s="86">
-        <v>20</v>
-      </c>
-      <c r="L26" s="87">
-        <v>20</v>
-      </c>
-      <c r="O26" s="87">
-        <v>5</v>
-      </c>
-      <c r="R26" s="87">
-        <v>10</v>
-      </c>
-      <c r="W26" s="87">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="93" t="s">
-        <v>161</v>
-      </c>
-      <c r="G27" s="87">
-        <v>2</v>
-      </c>
-      <c r="I27" s="87">
+      <c r="AI36" s="67">
+        <f>COUNTIF(AI2:AI35,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="67">
+        <f>COUNTIF(AJ2:AJ35,"&gt;0")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="86" t="str">
-        <f>A27</f>
-        <v>一级电线杆</v>
-      </c>
-      <c r="Q28" s="87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="B29" s="86" t="str">
-        <f>A28</f>
-        <v>二级电线杆</v>
-      </c>
-      <c r="L29" s="87">
-        <v>10</v>
-      </c>
-      <c r="U29" s="87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="87">
-        <v>6</v>
-      </c>
-      <c r="H30" s="87">
+      <c r="AK36" s="67">
+        <f>COUNTIF(AK2:AK35,"&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="I30" s="87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="93" t="s">
-        <v>171</v>
-      </c>
-      <c r="E31" s="87">
-        <v>4</v>
-      </c>
-      <c r="G31" s="87">
-        <v>10</v>
-      </c>
-      <c r="H31" s="87">
-        <v>4</v>
-      </c>
-      <c r="I31" s="87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="93" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" s="86">
-        <v>10</v>
-      </c>
-      <c r="N32" s="87">
-        <v>5</v>
-      </c>
-      <c r="W32" s="87">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="G33" s="87">
-        <v>6</v>
-      </c>
-      <c r="L33" s="87">
+      <c r="AL36" s="67">
+        <f>COUNTIF(AL2:AL35,"&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="X33" s="87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="93" t="s">
-        <v>180</v>
-      </c>
-      <c r="C34" s="86">
-        <v>20</v>
-      </c>
-      <c r="F34" s="86">
-        <v>15</v>
-      </c>
-      <c r="L34" s="87">
-        <v>1</v>
-      </c>
-      <c r="R34" s="87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="93" t="s">
-        <v>186</v>
-      </c>
-      <c r="L35" s="87">
-        <v>10</v>
-      </c>
-      <c r="O35" s="87">
-        <v>4</v>
-      </c>
-      <c r="T35" s="87">
-        <v>12</v>
-      </c>
-      <c r="AA35" s="87">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="F36" s="86">
-        <v>40</v>
-      </c>
-      <c r="M36" s="87">
-        <v>8</v>
-      </c>
-      <c r="O36" s="87">
-        <v>40</v>
-      </c>
-      <c r="T36" s="87">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="98" t="s">
-        <v>191</v>
-      </c>
-      <c r="M37" s="87">
-        <v>1</v>
-      </c>
-      <c r="O37" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="B38" s="86" t="str">
-        <f>A37</f>
-        <v>约束球</v>
-      </c>
-      <c r="P38" s="87">
-        <v>10</v>
-      </c>
-      <c r="T38" s="87">
-        <v>20</v>
-      </c>
-      <c r="U38" s="87">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="G39" s="87">
-        <v>8</v>
-      </c>
-      <c r="O39" s="87">
-        <v>4</v>
-      </c>
-      <c r="Q39" s="87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="91" t="s">
-        <v>213</v>
-      </c>
-      <c r="F40" s="86">
-        <v>40</v>
-      </c>
-      <c r="M40" s="87">
-        <v>20</v>
-      </c>
-      <c r="O40" s="87">
-        <v>40</v>
-      </c>
-      <c r="S40" s="87">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="B41" s="86" t="str">
-        <f>A40</f>
-        <v>行星物流塔</v>
-      </c>
-      <c r="M41" s="87">
-        <v>20</v>
-      </c>
-      <c r="T41" s="87">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" s="91" t="s">
-        <v>215</v>
-      </c>
-      <c r="B42" s="86" t="str">
-        <f>A41&amp;"+"&amp;A33&amp;"+"&amp;A47</f>
-        <v>星际物流塔+电池+加力推进器</v>
-      </c>
-      <c r="L42" s="87">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="91" t="s">
-        <v>248</v>
-      </c>
-      <c r="C43" s="86">
-        <v>2</v>
-      </c>
-      <c r="I43" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A44" s="91" t="s">
-        <v>258</v>
-      </c>
-      <c r="B44" s="86" t="str">
-        <f>A43</f>
-        <v>动力引擎</v>
-      </c>
-      <c r="G44" s="87">
-        <v>2</v>
-      </c>
-      <c r="O44" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A45" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="C45" s="86">
-        <v>3</v>
-      </c>
-      <c r="F45" s="86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A46" s="91" t="s">
-        <v>260</v>
-      </c>
-      <c r="B46" s="86" t="str">
-        <f>A45</f>
-        <v>推进器</v>
-      </c>
-      <c r="G46" s="87">
-        <v>5</v>
-      </c>
-      <c r="O46" s="87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47" s="91" t="s">
-        <v>216</v>
-      </c>
-      <c r="K47" s="87">
-        <v>5</v>
-      </c>
-      <c r="T47" s="87">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A48" s="91" t="s">
-        <v>261</v>
-      </c>
-      <c r="B48" s="86" t="str">
-        <f>A47</f>
-        <v>加力推进器</v>
-      </c>
-      <c r="O48" s="87">
-        <v>10</v>
-      </c>
-      <c r="T48" s="87">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="96" t="s">
-        <v>217</v>
-      </c>
-      <c r="G49" s="87">
-        <v>4</v>
-      </c>
-      <c r="H49" s="87">
-        <v>2</v>
-      </c>
-      <c r="I49" s="87">
-        <v>2</v>
-      </c>
-      <c r="N49" s="87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="96" t="s">
-        <v>218</v>
-      </c>
-      <c r="L50" s="87">
-        <v>10</v>
-      </c>
-      <c r="P50" s="87">
-        <v>4</v>
-      </c>
-      <c r="T50" s="87">
-        <v>20</v>
-      </c>
-      <c r="U50" s="87">
-        <v>10</v>
-      </c>
-      <c r="AG50" s="87">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="96" t="s">
-        <v>221</v>
-      </c>
-      <c r="E51" s="87">
-        <v>4</v>
-      </c>
-      <c r="G51" s="87">
-        <v>8</v>
-      </c>
-      <c r="J51" s="87">
-        <v>4</v>
-      </c>
-      <c r="N51" s="87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="E52" s="87">
-        <v>12</v>
-      </c>
-      <c r="F52" s="86">
-        <v>12</v>
-      </c>
-      <c r="N52" s="87">
-        <v>6</v>
-      </c>
-      <c r="Q52" s="87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="97" t="s">
-        <v>204</v>
-      </c>
-      <c r="G53" s="87">
-        <v>3</v>
-      </c>
-      <c r="H53" s="87">
-        <v>2</v>
-      </c>
-      <c r="N53" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="97" t="s">
-        <v>205</v>
-      </c>
-      <c r="F54" s="86">
-        <v>3</v>
-      </c>
-      <c r="H54" s="87">
-        <v>4</v>
-      </c>
-      <c r="L54" s="87">
-        <v>1</v>
-      </c>
-      <c r="O54" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="97" t="s">
-        <v>206</v>
-      </c>
-      <c r="D55" s="87">
-        <v>1</v>
-      </c>
-      <c r="G55" s="87">
-        <v>3</v>
-      </c>
-      <c r="H55" s="87">
-        <v>2</v>
-      </c>
-      <c r="N55" s="87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" s="97" t="s">
-        <v>209</v>
-      </c>
-      <c r="E56" s="87">
-        <v>4</v>
-      </c>
-      <c r="G56" s="87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A57" s="97" t="s">
-        <v>210</v>
-      </c>
-      <c r="E57" s="87">
-        <v>8</v>
-      </c>
-      <c r="F57" s="86">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A58" s="97" t="s">
-        <v>211</v>
-      </c>
-      <c r="D58" s="87">
-        <v>4</v>
-      </c>
-      <c r="E58" s="87">
-        <v>4</v>
-      </c>
-      <c r="G58" s="87">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" s="90" t="s">
-        <v>245</v>
-      </c>
-      <c r="G59" s="87">
-        <v>8</v>
-      </c>
-      <c r="H59" s="87">
-        <v>8</v>
-      </c>
-      <c r="I59" s="87">
-        <v>2</v>
-      </c>
-      <c r="N59" s="87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="90" t="s">
-        <v>246</v>
-      </c>
-      <c r="B60" s="86" t="str">
-        <f>A43</f>
-        <v>动力引擎</v>
-      </c>
-      <c r="F60" s="86">
-        <v>8</v>
-      </c>
-      <c r="J60" s="87">
-        <v>6</v>
-      </c>
-      <c r="N60" s="87">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="90" t="s">
-        <v>249</v>
-      </c>
-      <c r="F61" s="86">
-        <v>10</v>
-      </c>
-      <c r="J61" s="87">
-        <v>8</v>
-      </c>
-      <c r="L61" s="87">
-        <v>2</v>
-      </c>
-      <c r="N61" s="87">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="90" t="s">
-        <v>250</v>
-      </c>
-      <c r="F62" s="86">
-        <v>9</v>
-      </c>
-      <c r="N62" s="87">
-        <v>6</v>
-      </c>
-      <c r="Q62" s="87">
-        <v>6</v>
-      </c>
-      <c r="R62" s="87">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A63" s="90" t="s">
-        <v>251</v>
-      </c>
-      <c r="L63" s="87">
-        <v>10</v>
-      </c>
-      <c r="O63" s="87">
-        <v>5</v>
-      </c>
-      <c r="Q63" s="87">
-        <v>5</v>
-      </c>
-      <c r="T63" s="87">
-        <v>20</v>
-      </c>
-      <c r="V63" s="87">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" s="90" t="s">
-        <v>252</v>
-      </c>
-      <c r="F64" s="86">
-        <v>15</v>
-      </c>
-      <c r="L64" s="87">
-        <v>5</v>
-      </c>
-      <c r="O64" s="87">
-        <v>5</v>
-      </c>
-      <c r="Q64" s="87">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A65" s="90" t="s">
-        <v>253</v>
-      </c>
-      <c r="B65" s="86" t="str">
-        <f>A43</f>
-        <v>动力引擎</v>
-      </c>
-      <c r="F65" s="86">
-        <v>12</v>
-      </c>
-      <c r="N65" s="87">
-        <v>18</v>
-      </c>
-      <c r="Y65" s="87">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A66" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="C66" s="86">
-        <v>12</v>
-      </c>
-      <c r="O66" s="87">
-        <v>3</v>
-      </c>
-      <c r="Q66" s="87">
-        <v>9</v>
-      </c>
-      <c r="AF66" s="87">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A67" s="90" t="s">
-        <v>256</v>
-      </c>
-      <c r="B67" s="86" t="str">
-        <f>A28</f>
-        <v>二级电线杆</v>
-      </c>
-      <c r="F67" s="86">
-        <v>12</v>
-      </c>
-      <c r="X67" s="87">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A68" s="90" t="s">
-        <v>257</v>
-      </c>
-      <c r="F68" s="86">
-        <v>20</v>
-      </c>
-      <c r="K68" s="87">
-        <v>20</v>
-      </c>
-      <c r="L68" s="87">
-        <v>5</v>
-      </c>
-      <c r="M68" s="87">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A70" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="C70" s="86">
-        <f>COUNTIF(C27:C68,"&gt;0")</f>
-        <v>5</v>
-      </c>
-      <c r="D70" s="86">
-        <f>COUNTIF(D2:D68,"&gt;0")</f>
-        <v>5</v>
-      </c>
-      <c r="E70" s="86">
-        <f>COUNTIF(E2:E68,"&gt;0")</f>
-        <v>10</v>
-      </c>
-      <c r="F70" s="86">
-        <f>COUNTIF(F2:F68,"&gt;0")</f>
-        <v>20</v>
-      </c>
-      <c r="G70" s="86">
-        <f t="shared" ref="G70:AI70" si="0">COUNTIF(G2:G68,"&gt;0")</f>
-        <v>19</v>
-      </c>
-      <c r="H70" s="86">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I70" s="86">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J70" s="86">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K70" s="86">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L70" s="86">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="M70" s="86">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N70" s="86">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="O70" s="86">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="P70" s="86">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Q70" s="86">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="R70" s="86">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="S70" s="86">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T70" s="86">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="U70" s="86">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="V70" s="86">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="W70" s="86">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="X70" s="86">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Y70" s="86">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Z70" s="86">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AA70" s="86">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB70" s="86">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC70" s="86">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD70" s="86">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE70" s="86">
-        <f>COUNTIF(AE2:AE68,"&gt;0")</f>
-        <v>1</v>
-      </c>
-      <c r="AF70" s="86">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AG70" s="86">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AH70" s="86">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AI70" s="86">
-        <f t="shared" si="0"/>
+      <c r="AM36" s="67">
+        <f>COUNTIF(AM2:AM35,"&gt;0")</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4028FB0-9405-47B7-9F71-DC88E4E936F9}">
+  <dimension ref="A1:AM29"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="67" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="67"/>
+    <col min="6" max="6" width="8.88671875" style="67" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="84" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="S1" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="U1" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="V1" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="W1" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="X1" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y1" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z1" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA1" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD1" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE1" s="84" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF1" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG1" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH1" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI1" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ1" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK1" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL1" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM1" s="85" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="67">
+        <v>4</v>
+      </c>
+      <c r="E2" s="67">
+        <v>4</v>
+      </c>
+      <c r="F2" s="67">
+        <v>8</v>
+      </c>
+      <c r="O2" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="67">
+        <v>6</v>
+      </c>
+      <c r="H3" s="67">
+        <v>1</v>
+      </c>
+      <c r="I3" s="67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="67">
+        <v>4</v>
+      </c>
+      <c r="G4" s="67">
+        <v>10</v>
+      </c>
+      <c r="H4" s="67">
+        <v>4</v>
+      </c>
+      <c r="I4" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="67">
+        <v>10</v>
+      </c>
+      <c r="N5" s="67">
+        <v>5</v>
+      </c>
+      <c r="W5" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="67">
+        <v>20</v>
+      </c>
+      <c r="F6" s="67">
+        <v>15</v>
+      </c>
+      <c r="L6" s="67">
+        <v>1</v>
+      </c>
+      <c r="R6" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="L7" s="67">
+        <v>10</v>
+      </c>
+      <c r="O7" s="67">
+        <v>4</v>
+      </c>
+      <c r="T7" s="67">
+        <v>12</v>
+      </c>
+      <c r="AD7" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="67">
+        <v>40</v>
+      </c>
+      <c r="M8" s="67">
+        <v>8</v>
+      </c>
+      <c r="O8" s="67">
+        <v>40</v>
+      </c>
+      <c r="T8" s="67">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="G9" s="67">
+        <v>8</v>
+      </c>
+      <c r="O9" s="67">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="67">
+        <v>2</v>
+      </c>
+      <c r="O10" s="67">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="67">
+        <v>4</v>
+      </c>
+      <c r="H11" s="67">
+        <v>2</v>
+      </c>
+      <c r="I11" s="67">
+        <v>2</v>
+      </c>
+      <c r="N11" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="67">
+        <v>3</v>
+      </c>
+      <c r="H12" s="67">
+        <v>2</v>
+      </c>
+      <c r="N12" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="67">
+        <v>3</v>
+      </c>
+      <c r="H13" s="67">
+        <v>4</v>
+      </c>
+      <c r="L13" s="67">
+        <v>1</v>
+      </c>
+      <c r="O13" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="67">
+        <v>1</v>
+      </c>
+      <c r="G14" s="67">
+        <v>3</v>
+      </c>
+      <c r="H14" s="67">
+        <v>2</v>
+      </c>
+      <c r="N14" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" s="67">
+        <v>4</v>
+      </c>
+      <c r="G15" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" s="67">
+        <v>8</v>
+      </c>
+      <c r="F16" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="67">
+        <v>4</v>
+      </c>
+      <c r="E17" s="67">
+        <v>4</v>
+      </c>
+      <c r="G17" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" s="67">
+        <v>8</v>
+      </c>
+      <c r="H18" s="67">
+        <v>8</v>
+      </c>
+      <c r="I18" s="67">
+        <v>2</v>
+      </c>
+      <c r="N18" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="F19" s="67">
+        <v>8</v>
+      </c>
+      <c r="J19" s="67">
+        <v>6</v>
+      </c>
+      <c r="N19" s="67">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="67">
+        <v>10</v>
+      </c>
+      <c r="J20" s="67">
+        <v>8</v>
+      </c>
+      <c r="L20" s="67">
+        <v>2</v>
+      </c>
+      <c r="N20" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" s="70" t="s">
+        <v>246</v>
+      </c>
+      <c r="F21" s="67">
+        <v>9</v>
+      </c>
+      <c r="N21" s="67">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="67">
+        <v>6</v>
+      </c>
+      <c r="R21" s="67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" s="70" t="s">
+        <v>247</v>
+      </c>
+      <c r="L22" s="67">
+        <v>10</v>
+      </c>
+      <c r="O22" s="67">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="67">
+        <v>5</v>
+      </c>
+      <c r="T22" s="67">
+        <v>20</v>
+      </c>
+      <c r="V22" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F23" s="67">
+        <v>15</v>
+      </c>
+      <c r="L23" s="67">
+        <v>5</v>
+      </c>
+      <c r="O23" s="67">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="F24" s="67">
+        <v>12</v>
+      </c>
+      <c r="N24" s="67">
+        <v>18</v>
+      </c>
+      <c r="Y24" s="67">
+        <v>6</v>
+      </c>
+      <c r="Z24" s="67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="67">
+        <v>12</v>
+      </c>
+      <c r="O25" s="67">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="67">
+        <v>9</v>
+      </c>
+      <c r="AI25" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="F26" s="67">
+        <v>12</v>
+      </c>
+      <c r="X26" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="F27" s="67">
+        <v>20</v>
+      </c>
+      <c r="K27" s="67">
+        <v>20</v>
+      </c>
+      <c r="L27" s="67">
+        <v>5</v>
+      </c>
+      <c r="M27" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="67">
+        <f>COUNTIF(C3:C27,"&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="D29" s="67">
+        <f>COUNTIF(D3:D27,"&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="E29" s="67">
+        <f>COUNTIF(E3:E27,"&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="F29" s="67">
+        <f>COUNTIF(F3:F27,"&gt;0")</f>
+        <v>11</v>
+      </c>
+      <c r="G29" s="67">
+        <f>COUNTIF(G3:G27,"&gt;0")</f>
+        <v>10</v>
+      </c>
+      <c r="H29" s="67">
+        <f>COUNTIF(H3:H27,"&gt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="I29" s="67">
+        <f>COUNTIF(I3:I27,"&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="J29" s="67">
+        <f>COUNTIF(J3:J27,"&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="K29" s="67">
+        <f>COUNTIF(K3:K27,"&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="L29" s="67">
+        <f>COUNTIF(L3:L27,"&gt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="M29" s="67">
+        <f>COUNTIF(M3:M27,"&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="N29" s="67">
+        <f>COUNTIF(N3:N27,"&gt;0")</f>
+        <v>9</v>
+      </c>
+      <c r="O29" s="67">
+        <f>COUNTIF(O3:O27,"&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="P29" s="67">
+        <f>COUNTIF(P3:P27,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="67">
+        <f>COUNTIF(Q3:Q27,"&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="R29" s="67">
+        <f>COUNTIF(R3:R27,"&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="S29" s="67">
+        <f>COUNTIF(S3:S27,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="67">
+        <f>COUNTIF(T3:T27,"&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="U29" s="67">
+        <f>COUNTIF(U3:U27,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="67">
+        <f>COUNTIF(V3:V27,"&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="W29" s="67">
+        <f>COUNTIF(W3:W27,"&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="X29" s="67">
+        <f>COUNTIF(X3:X27,"&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="Y29" s="67">
+        <f>COUNTIF(Y3:Y27,"&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="Z29" s="67">
+        <f>COUNTIF(Z3:Z27,"&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="AA29" s="67">
+        <f>COUNTIF(AA3:AA27,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="67">
+        <f>COUNTIF(AB3:AB27,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="67">
+        <f>COUNTIF(AC3:AC27,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="67">
+        <f>COUNTIF(AD3:AD27,"&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="AE29" s="67">
+        <f>COUNTIF(AE3:AE27,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="67">
+        <f>COUNTIF(AF3:AF27,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="67">
+        <f>COUNTIF(AG3:AG27,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="67">
+        <f>COUNTIF(AH3:AH27,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="67">
+        <f>COUNTIF(AI3:AI27,"&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="67">
+        <f>COUNTIF(AJ3:AJ27,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="67">
+        <f>COUNTIF(AK3:AK27,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="67">
+        <f>COUNTIF(AL3:AL27,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AM29" s="67">
+        <f>COUNTIF(AM3:AM27,"&gt;0")</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -11489,7 +11557,7 @@
         <v>60</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11498,29 +11566,17 @@
         <v>7200</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -11532,12 +11588,22 @@
 </pixelators>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11557,13 +11623,15 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -11572,7 +11640,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -11581,7 +11649,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -11608,7 +11676,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/戴森球计算表.xlsx
+++ b/戴森球计算表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\戴森球\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9389BEEB-AB2E-4B84-9596-869465BEAD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0280ED27-A7A2-40D8-BC14-C85CE30C3936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3850,7 +3850,7 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="D5" s="86"/>
       <c r="E5" s="95">
-        <f>D5/1.25/96</f>
+        <f>D5/1.25/240</f>
         <v>0</v>
       </c>
       <c r="F5" s="93">
@@ -3950,10 +3950,12 @@
         <v>143.28</v>
       </c>
       <c r="D6" s="96">
-        <f>E6*96*1.25</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="87"/>
+        <f>E6*240*1.25</f>
+        <v>360000</v>
+      </c>
+      <c r="E6" s="87">
+        <v>1200</v>
+      </c>
       <c r="F6" s="90"/>
       <c r="G6" s="94">
         <f>F6*(勿动!D2/勿动!C2*勿动!A3)</f>
@@ -19729,7 +19731,7 @@
   <dimension ref="A1:AT64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -19874,8 +19876,8 @@
         <v>1000</v>
       </c>
       <c r="D2" s="54">
-        <f>IF(一些计算!G4="发电量（光子）",32,4)</f>
-        <v>32</v>
+        <f>IF(一些计算!G4="发电量（光子）",80,10)</f>
+        <v>80</v>
       </c>
       <c r="I2" s="74" t="s">
         <v>189</v>

--- a/戴森球计算表.xlsx
+++ b/戴森球计算表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\戴森球\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0280ED27-A7A2-40D8-BC14-C85CE30C3936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE664E64-9B29-4CAD-A268-DE392C22418F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,16 @@
     <sheet name="全建筑" sheetId="9" r:id="rId2"/>
     <sheet name="量化计算器" sheetId="1" r:id="rId3"/>
     <sheet name="1875" sheetId="8" r:id="rId4"/>
-    <sheet name="勿动" sheetId="2" r:id="rId5"/>
+    <sheet name="火箭" sheetId="10" r:id="rId5"/>
+    <sheet name="勿动" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="302">
   <si>
     <t>物品</t>
   </si>
@@ -1075,10 +1077,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>单建筑产量</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>科研等级</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1096,6 +1094,78 @@
   </si>
   <si>
     <t>GW</t>
+  </si>
+  <si>
+    <t>硫酸</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动机</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>线圈</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>齿轮</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>电路板</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁板</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁铁</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜板</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>石墨</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>石墨烯</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>硅板</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳米管</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>马达系</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>增产修正</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>单建筑产量/消耗</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1105,7 +1175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1348,6 +1418,12 @@
       <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1811,7 +1887,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1960,13 +2036,26 @@
     <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="12" applyBorder="1" applyAlignment="1">
@@ -1975,16 +2064,28 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1993,37 +2094,13 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3850,7 +3927,7 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3895,14 +3972,14 @@
         <v>274</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="105" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="104"/>
+      <c r="B3" s="105"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
@@ -3914,10 +3991,10 @@
       <c r="D4" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="106" t="s">
         <v>266</v>
       </c>
-      <c r="F4" s="105"/>
+      <c r="F4" s="106"/>
       <c r="G4" s="89" t="s">
         <v>267</v>
       </c>
@@ -3993,7 +4070,7 @@
         <v>277</v>
       </c>
       <c r="E9" s="99" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="F9" s="99" t="s">
         <v>276</v>
@@ -4022,10 +4099,10 @@
         <v>45</v>
       </c>
       <c r="F10" s="92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="92">
         <v>0.75</v>
@@ -4068,16 +4145,16 @@
         <v>688.4490599366078</v>
       </c>
       <c r="D14" s="100" t="s">
+        <v>280</v>
+      </c>
+      <c r="E14" s="100" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="100" t="s">
         <v>281</v>
       </c>
-      <c r="E14" s="100" t="s">
-        <v>280</v>
-      </c>
-      <c r="F14" s="100" t="s">
+      <c r="G14" s="100" t="s">
         <v>282</v>
-      </c>
-      <c r="G14" s="100" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -4878,7 +4955,7 @@
         <v>98</v>
       </c>
       <c r="B102">
-        <f t="shared" ref="B102:B104" si="3">B101+(C$2-B101)*0.01</f>
+        <f>B101+(C$2-B101)*0.01</f>
         <v>4511.0571807292599</v>
       </c>
     </row>
@@ -4887,7 +4964,7 @@
         <v>99</v>
       </c>
       <c r="B103">
-        <f t="shared" si="3"/>
+        <f>B102+(C$2-B102)*0.01</f>
         <v>4537.9466089219677</v>
       </c>
     </row>
@@ -4896,7 +4973,7 @@
         <v>100</v>
       </c>
       <c r="B104">
-        <f t="shared" si="3"/>
+        <f>B103+(C$2-B103)*0.01</f>
         <v>4564.5671428327478</v>
       </c>
     </row>
@@ -15487,7 +15564,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="124" t="s">
         <v>260</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -15504,10 +15581,10 @@
       <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="106"/>
+      <c r="A2" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -15520,17 +15597,17 @@
       <c r="I2" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="O2" s="121" t="s">
+      <c r="O2" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="121"/>
-      <c r="S2" s="122" t="s">
+      <c r="P2" s="107"/>
+      <c r="S2" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="122"/>
+      <c r="T2" s="108"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="115"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="79" t="s">
         <v>262</v>
       </c>
@@ -15597,11 +15674,11 @@
       <c r="R5" s="8"/>
       <c r="S5" s="7"/>
       <c r="T5" s="8"/>
-      <c r="U5" s="107" t="s">
+      <c r="U5" s="112" t="s">
         <v>12</v>
       </c>
       <c r="V5" s="21"/>
-      <c r="W5" s="107" t="s">
+      <c r="W5" s="112" t="s">
         <v>13</v>
       </c>
       <c r="X5" s="21"/>
@@ -15665,12 +15742,12 @@
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="10"/>
-      <c r="U6" s="108"/>
+      <c r="U6" s="113"/>
       <c r="V6" s="22">
         <f>(X7+X6)*2</f>
         <v>0</v>
       </c>
-      <c r="W6" s="108"/>
+      <c r="W6" s="113"/>
       <c r="X6" s="22">
         <f>(L28+L27)/2</f>
         <v>0</v>
@@ -15708,117 +15785,117 @@
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="110" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="118" t="s">
+      <c r="E8" s="110" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="17"/>
-      <c r="G8" s="118" t="s">
+      <c r="G8" s="110" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="17"/>
-      <c r="I8" s="118" t="s">
+      <c r="I8" s="110" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="17"/>
-      <c r="K8" s="118" t="s">
+      <c r="K8" s="110" t="s">
         <v>26</v>
       </c>
       <c r="L8" s="17"/>
-      <c r="M8" s="118" t="s">
+      <c r="M8" s="110" t="s">
         <v>27</v>
       </c>
       <c r="N8" s="17"/>
-      <c r="O8" s="123" t="s">
+      <c r="O8" s="116" t="s">
         <v>6</v>
       </c>
       <c r="P8" s="40"/>
-      <c r="Q8" s="113" t="s">
+      <c r="Q8" s="122" t="s">
         <v>28</v>
       </c>
       <c r="R8" s="48"/>
-      <c r="S8" s="113" t="s">
+      <c r="S8" s="122" t="s">
         <v>9</v>
       </c>
       <c r="T8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="U8" s="107"/>
+      <c r="U8" s="112"/>
       <c r="V8" s="21"/>
-      <c r="W8" s="107"/>
+      <c r="W8" s="112"/>
       <c r="X8" s="21"/>
-      <c r="Y8" s="107"/>
+      <c r="Y8" s="112"/>
       <c r="Z8" s="21"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="C9" s="119"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="14">
         <f>(D16+D15)*3+(D18+D19)+(J18+J19)+(F15+F16)*2+(V18+V19)*5+(D31+D32)*2+(D35+D34)*2/3+(D38+D37)+(J35+J34)*3+(J32+J31)*6+(L32+L31)*10+(P32+P31)*6+(L35+L34)*4+(P35+P34)*8+(J38+J37)*4+(L38+L37)*8+(D41+D40)*4+(J41+J40)*4+(R41+R40)*8+(Z19+Z18)*2</f>
         <v>0</v>
       </c>
-      <c r="E9" s="119" t="s">
+      <c r="E9" s="111" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="18">
         <f>(F13+F12)*0.5+(J18+J19)*0.5+(H24+H25)+(N21+N22)*2+(V15+V16)*3+(N32+N31)*6</f>
         <v>0</v>
       </c>
-      <c r="G9" s="119" t="s">
+      <c r="G9" s="111" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="18">
         <f>(H12+H13)+(H24+H25)*2+(N32+N31)*6+(R32+R31)*20</f>
         <v>0</v>
       </c>
-      <c r="I9" s="119" t="s">
+      <c r="I9" s="111" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="18">
         <f>(J12+J13)+(T15+T16)*3+(V12+V13)+(T35+T34)*40+(T19+T18)/2+(J16+J15)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="119" t="s">
+      <c r="K9" s="111" t="s">
         <v>26</v>
       </c>
       <c r="L9" s="18">
         <f>(Z27+Z28)*3+(L32+L31)*4+(L35+L34)*4+(N35+N34)*8+(P35+P34)*4+(L38+L37)*4+(N38+N37)*12+(P38+P37)*10+(J41+J40)*2+(N41+N40)*4+(P41+P40)*8</f>
         <v>0</v>
       </c>
-      <c r="M9" s="119" t="s">
+      <c r="M9" s="111" t="s">
         <v>27</v>
       </c>
       <c r="N9" s="18">
         <f>IF(T8="化工设备",IF(N11="石墨",(N12+N13)+(F21+F22)+(R9+R10)+(T9+T10)*3/2+(F27+F28)*2,(F21+F22)+(R9+R10)+(T9+T10)*3/2+(F27+F28)*2),IF(N11="石墨",(N12+N13)+(F21+F22)+(R9+R10)+(F27+F28)*2,(F21+F22)+(R9+R10)+(F27+F28)*2))</f>
         <v>0</v>
       </c>
-      <c r="O9" s="124"/>
+      <c r="O9" s="117"/>
       <c r="P9" s="41">
         <f>IF(R11="化工设备",IF(N17="化工设备",(N18+N19)*6/4+(R9+R10)*2+(R12+R13),(R9+R10)*2+(R12+R13)),IF(N17="化工设备",(N18+N19)*6/4+(R9+R10)*2,(R9+R10)*2))</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="114" t="s">
+      <c r="Q9" s="123" t="s">
         <v>28</v>
       </c>
       <c r="R9" s="46">
         <f>IF(R11="化工设备",(R12+R13)*2+(H22+H21),(H22+H21))</f>
         <v>0</v>
       </c>
-      <c r="S9" s="114" t="s">
+      <c r="S9" s="123" t="s">
         <v>9</v>
       </c>
       <c r="T9" s="46">
         <f>IF(N20="电磁涡轮",(N21+N22)*2+(V21+V22)*1/2+(H35+H34)/3+(F41+F40)*8+(T19+T18)*3/2+(L22+L21)*2,(V21+V22)*1/2+(H35+H34)/3+(F41+F40)*8+(T19+T18)*3/2+(L22+L21)*2)</f>
         <v>0</v>
       </c>
-      <c r="U9" s="108"/>
+      <c r="U9" s="113"/>
       <c r="V9" s="22"/>
-      <c r="W9" s="108"/>
+      <c r="W9" s="113"/>
       <c r="X9" s="22"/>
-      <c r="Y9" s="108"/>
+      <c r="Y9" s="113"/>
       <c r="Z9" s="22"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15874,27 +15951,27 @@
       <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="110" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="107" t="s">
+      <c r="E11" s="112" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="118" t="s">
+      <c r="G11" s="110" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="118" t="s">
+      <c r="I11" s="110" t="s">
         <v>34</v>
       </c>
       <c r="J11" s="17"/>
-      <c r="K11" s="118" t="s">
+      <c r="K11" s="110" t="s">
         <v>35</v>
       </c>
       <c r="L11" s="17"/>
-      <c r="M11" s="118" t="s">
+      <c r="M11" s="110" t="s">
         <v>36</v>
       </c>
       <c r="N11" s="42" t="s">
@@ -15907,91 +15984,91 @@
       <c r="P11" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="Q11" s="113" t="s">
+      <c r="Q11" s="122" t="s">
         <v>38</v>
       </c>
       <c r="R11" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="S11" s="115" t="s">
+      <c r="S11" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="U11" s="111" t="s">
+      <c r="U11" s="114" t="s">
         <v>40</v>
       </c>
       <c r="V11" s="21"/>
-      <c r="W11" s="107"/>
+      <c r="W11" s="112"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="107"/>
+      <c r="Y11" s="112"/>
       <c r="Z11" s="21"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="119" t="s">
+      <c r="C12" s="111" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="18">
         <f>(F13+F12)+(F21+F22)*3</f>
         <v>0</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="113" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="22">
         <f>(D21+D22)*4+(F15+F16)+(F18+F19)*2+(D31+D32)+(D28+D27)+(J32+J31)*3+(L32+L31)*4+(J38+J37)*2+(J41+J40)*2+(R41+R40)*4</f>
         <v>0</v>
       </c>
-      <c r="G12" s="119" t="s">
+      <c r="G12" s="111" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="18">
         <f>(P32+P31)*4+(H22+H21)*2</f>
         <v>0</v>
       </c>
-      <c r="I12" s="119" t="s">
+      <c r="I12" s="111" t="s">
         <v>34</v>
       </c>
       <c r="J12" s="18">
         <f>(X15+X16)*5+(X18+X19)*10+(T38+T37)*40</f>
         <v>0</v>
       </c>
-      <c r="K12" s="119" t="s">
+      <c r="K12" s="111" t="s">
         <v>35</v>
       </c>
       <c r="L12" s="18">
         <f>(L15+L16)*3/2+(P35+P34)*4+(N41+N40)*4+(P41+P40)*8+(R41+R40)*4+(J16+J15)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="119" t="s">
+      <c r="M12" s="111" t="s">
         <v>36</v>
       </c>
       <c r="N12" s="18">
         <f>(H28+H27)+(L19+L18)*4</f>
         <v>0</v>
       </c>
-      <c r="O12" s="123" t="s">
+      <c r="O12" s="116" t="s">
         <v>7</v>
       </c>
       <c r="P12" s="41">
         <f>(V12+V13)*5+(F27+F28)*2+(L22+L21)*12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="114"/>
+      <c r="Q12" s="123"/>
       <c r="R12" s="46">
         <f>(T15+T16)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="115"/>
+      <c r="S12" s="109"/>
       <c r="T12">
         <f>IF(IF(T8="可燃冰",(T10+T9),0)&gt;IF(P11="可燃冰",(P12+P13)*2,0),IF(T8="可燃冰",(T10+T9),0),IF(P11="可燃冰",(P12+P13)*2,0))</f>
         <v>0</v>
       </c>
-      <c r="U12" s="112" t="s">
+      <c r="U12" s="115" t="s">
         <v>40</v>
       </c>
       <c r="V12" s="22"/>
-      <c r="W12" s="108"/>
+      <c r="W12" s="113"/>
       <c r="X12" s="22"/>
-      <c r="Y12" s="108"/>
+      <c r="Y12" s="113"/>
       <c r="Z12" s="22"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16025,7 +16102,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="20"/>
-      <c r="O13" s="125"/>
+      <c r="O13" s="118"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="47">
         <f>(R13+R12)*6/勿动!A2</f>
@@ -16050,106 +16127,106 @@
       <c r="Z13" s="20"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="110" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="17"/>
-      <c r="E14" s="107" t="s">
+      <c r="E14" s="112" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="21"/>
-      <c r="G14" s="107"/>
+      <c r="G14" s="112"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="107" t="s">
+      <c r="I14" s="112" t="s">
         <v>44</v>
       </c>
       <c r="J14" s="21"/>
-      <c r="K14" s="107" t="s">
+      <c r="K14" s="112" t="s">
         <v>45</v>
       </c>
       <c r="L14" s="21"/>
-      <c r="M14" s="120" t="s">
+      <c r="M14" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="107"/>
+      <c r="O14" s="112"/>
       <c r="P14" s="21"/>
-      <c r="Q14" s="107"/>
+      <c r="Q14" s="112"/>
       <c r="R14" s="21"/>
-      <c r="S14" s="107" t="s">
+      <c r="S14" s="112" t="s">
         <v>47</v>
       </c>
       <c r="T14" s="21"/>
-      <c r="U14" s="111" t="s">
+      <c r="U14" s="114" t="s">
         <v>48</v>
       </c>
       <c r="V14" s="21"/>
-      <c r="W14" s="111" t="s">
+      <c r="W14" s="114" t="s">
         <v>49</v>
       </c>
       <c r="X14" s="21"/>
-      <c r="Y14" s="107"/>
+      <c r="Y14" s="112"/>
       <c r="Z14" s="21"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="111" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="18">
         <f>(J12+J13)+(V15+V16)*2+(Z27+Z28)*1+(R32+R31)*20+(N35+N34)*8+(R35+R34)*20+(T35+T34)*40+(N38+N37)*12+(P38+P37)*10+(N41+N40)*8+(P41+P40)*8</f>
         <v>0</v>
       </c>
-      <c r="E15" s="108" t="s">
+      <c r="E15" s="113" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="22">
         <f>(F18+F19)*2+(F38+F37)/2+(L38+L37)*4</f>
         <v>0</v>
       </c>
-      <c r="G15" s="108"/>
+      <c r="G15" s="113"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="108"/>
+      <c r="I15" s="113"/>
       <c r="J15" s="22">
         <f>(V7+V6)*2</f>
         <v>0</v>
       </c>
-      <c r="K15" s="108" t="s">
+      <c r="K15" s="113" t="s">
         <v>45</v>
       </c>
       <c r="L15" s="22">
         <f>IF(D23="棱镜",(D21+D22)*2+(D24+D25)*2,(D21+D22)*2)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="120"/>
+      <c r="M15" s="121"/>
       <c r="N15">
         <f>IF(N11="金伯利矿石",(N13+N12),0)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="108"/>
+      <c r="O15" s="113"/>
       <c r="P15" s="22"/>
-      <c r="Q15" s="108"/>
+      <c r="Q15" s="113"/>
       <c r="R15" s="22"/>
-      <c r="S15" s="108" t="s">
+      <c r="S15" s="113" t="s">
         <v>47</v>
       </c>
       <c r="T15" s="22">
         <f>(H28+H27)+(L22+L21)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="112" t="s">
+      <c r="U15" s="115" t="s">
         <v>48</v>
       </c>
       <c r="V15" s="22">
         <f>(V18+V19)*2</f>
         <v>0</v>
       </c>
-      <c r="W15" s="112" t="s">
+      <c r="W15" s="115" t="s">
         <v>49</v>
       </c>
       <c r="X15" s="22">
         <f>(X18+X19)*2</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="108"/>
+      <c r="Y15" s="113"/>
       <c r="Z15" s="22"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16198,108 +16275,108 @@
       <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="112" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="21"/>
-      <c r="E17" s="111" t="s">
+      <c r="E17" s="114" t="s">
         <v>51</v>
       </c>
       <c r="F17" s="21"/>
-      <c r="G17" s="107"/>
+      <c r="G17" s="112"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="107" t="s">
+      <c r="I17" s="112" t="s">
         <v>52</v>
       </c>
       <c r="J17" s="21"/>
-      <c r="K17" s="107" t="s">
+      <c r="K17" s="112" t="s">
         <v>53</v>
       </c>
       <c r="L17" s="21"/>
-      <c r="M17" s="113" t="s">
+      <c r="M17" s="122" t="s">
         <v>54</v>
       </c>
       <c r="N17" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="107" t="s">
+      <c r="O17" s="112" t="s">
         <v>55</v>
       </c>
       <c r="P17" s="21"/>
-      <c r="Q17" s="107"/>
+      <c r="Q17" s="112"/>
       <c r="R17" s="21"/>
-      <c r="S17" s="111" t="s">
+      <c r="S17" s="114" t="s">
         <v>56</v>
       </c>
       <c r="T17" s="21"/>
-      <c r="U17" s="111" t="s">
+      <c r="U17" s="114" t="s">
         <v>57</v>
       </c>
       <c r="V17" s="21"/>
-      <c r="W17" s="111" t="s">
+      <c r="W17" s="114" t="s">
         <v>58</v>
       </c>
       <c r="X17" s="21"/>
-      <c r="Y17" s="109" t="s">
+      <c r="Y17" s="125" t="s">
         <v>59</v>
       </c>
       <c r="Z17" s="51"/>
     </row>
     <row r="18" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="108"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="22">
         <f>(F15+F16)+(D35+D34)/3+(J35+J34)*2+(J32+J31)+(L31+L32)*4+(R35+R34)*20+(J38+J37)*2+(D41+D40)*8</f>
         <v>0</v>
       </c>
-      <c r="E18" s="112" t="s">
+      <c r="E18" s="115" t="s">
         <v>51</v>
       </c>
       <c r="F18" s="22">
         <f>IF(N20="电磁涡轮",(F21+F22)*2+(N21+N22)*2+(X15+X16)*5+(F35+F34)/3+(H38+H37)/2,(F21+F22)*2+(X15+X16)*5+(F35+F34)/3+(H38+H37)/2)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="108"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="108" t="s">
+      <c r="I18" s="113" t="s">
         <v>52</v>
       </c>
       <c r="J18" s="22">
         <f>(J21+J22)*2+(D24+D25)+(D28+D27)+(D38+D37)+(J35+J34)+(N32+N31)*4+(J38+J37)*2+(L38+L37)*2+(N38+N37)*6+(P38+P37)*6+(D41+D40)*4+(J41+J40)*4+(P41+P40)*2+(R41+R40)*4</f>
         <v>0</v>
       </c>
-      <c r="K18" s="108"/>
+      <c r="K18" s="113"/>
       <c r="L18" s="22">
         <f>(L28+L27)/2</f>
         <v>0</v>
       </c>
-      <c r="M18" s="114" t="s">
+      <c r="M18" s="123" t="s">
         <v>54</v>
       </c>
       <c r="N18" s="46">
         <f>IF(T8="化工设备",(J12+J13)*2+(T9+T10)*1/2,(J12+J13)*2)</f>
         <v>0</v>
       </c>
-      <c r="O18" s="108"/>
+      <c r="O18" s="113"/>
       <c r="P18" s="22">
         <f>(Z19+Z18)*10</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="108"/>
+      <c r="Q18" s="113"/>
       <c r="R18" s="22"/>
-      <c r="S18" s="112"/>
+      <c r="S18" s="115"/>
       <c r="T18" s="22">
         <f>(H22+H21)*2</f>
         <v>0</v>
       </c>
-      <c r="U18" s="112" t="s">
+      <c r="U18" s="115" t="s">
         <v>57</v>
       </c>
       <c r="V18" s="22"/>
-      <c r="W18" s="112" t="s">
+      <c r="W18" s="115" t="s">
         <v>58</v>
       </c>
       <c r="X18" s="22"/>
-      <c r="Y18" s="110"/>
+      <c r="Y18" s="126"/>
       <c r="Z18" s="52">
         <f>(L19+L18)</f>
         <v>0</v>
@@ -16359,99 +16436,99 @@
       <c r="Z19" s="20"/>
     </row>
     <row r="20" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="114" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="21"/>
-      <c r="E20" s="111" t="s">
+      <c r="E20" s="114" t="s">
         <v>61</v>
       </c>
       <c r="F20" s="21"/>
-      <c r="G20" s="107" t="s">
+      <c r="G20" s="112" t="s">
         <v>62</v>
       </c>
       <c r="H20" s="21"/>
-      <c r="I20" s="107" t="s">
+      <c r="I20" s="112" t="s">
         <v>63</v>
       </c>
       <c r="J20" s="21"/>
-      <c r="K20" s="111" t="s">
+      <c r="K20" s="114" t="s">
         <v>64</v>
       </c>
       <c r="L20" s="21"/>
-      <c r="M20" s="111" t="s">
+      <c r="M20" s="114" t="s">
         <v>65</v>
       </c>
       <c r="N20" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="O20" s="107"/>
+      <c r="O20" s="112"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="107"/>
+      <c r="Q20" s="112"/>
       <c r="R20" s="21"/>
-      <c r="S20" s="107"/>
+      <c r="S20" s="112"/>
       <c r="T20" s="21"/>
-      <c r="U20" s="111" t="s">
+      <c r="U20" s="114" t="s">
         <v>66</v>
       </c>
       <c r="V20" s="21"/>
-      <c r="W20" s="107"/>
+      <c r="W20" s="112"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="107"/>
+      <c r="Y20" s="112"/>
       <c r="Z20" s="21"/>
     </row>
     <row r="21" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="115" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="22">
         <f>(F31+F32)*3+(N38+N37)*4+(P38+P37)*6</f>
         <v>0</v>
       </c>
-      <c r="E21" s="112" t="s">
+      <c r="E21" s="115" t="s">
         <v>67</v>
       </c>
       <c r="F21" s="22">
         <f>(H35+H34)/3+(P32+P31)*6+(R32+R31)*20+(R35+R34)*10</f>
         <v>0</v>
       </c>
-      <c r="G21" s="108"/>
+      <c r="G21" s="113"/>
       <c r="H21" s="22">
         <f>(J28+J27)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="108" t="s">
+      <c r="I21" s="113" t="s">
         <v>63</v>
       </c>
       <c r="J21" s="22">
         <f>(V18+V19)*2+(X18+X19)*10+(R32+R31)*5+(R35+R34)*5+(T35+T34)*40+(F41+F40)*4+(N41+N40)+(J28+J27)*2+(X7+X6)*2</f>
         <v>0</v>
       </c>
-      <c r="K21" s="112"/>
+      <c r="K21" s="115"/>
       <c r="L21" s="22">
         <f>(V7+V6)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="112" t="s">
+      <c r="M21" s="115" t="s">
         <v>65</v>
       </c>
       <c r="N21" s="22">
         <f>(T35+T34)*20+(T38+T37)*20+(Z19+Z18)*2</f>
         <v>0</v>
       </c>
-      <c r="O21" s="108"/>
+      <c r="O21" s="113"/>
       <c r="P21" s="22"/>
-      <c r="Q21" s="108"/>
+      <c r="Q21" s="113"/>
       <c r="R21" s="22"/>
-      <c r="S21" s="108"/>
+      <c r="S21" s="113"/>
       <c r="T21" s="22"/>
-      <c r="U21" s="112" t="s">
+      <c r="U21" s="115" t="s">
         <v>66</v>
       </c>
       <c r="V21" s="22"/>
-      <c r="W21" s="108"/>
+      <c r="W21" s="113"/>
       <c r="X21" s="22"/>
-      <c r="Y21" s="108"/>
+      <c r="Y21" s="113"/>
       <c r="Z21" s="22"/>
     </row>
     <row r="22" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16502,79 +16579,79 @@
       <c r="Z22" s="20"/>
     </row>
     <row r="23" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="111" t="s">
+      <c r="C23" s="114" t="s">
         <v>68</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="115" t="s">
+      <c r="E23" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="107" t="s">
+      <c r="G23" s="112" t="s">
         <v>70</v>
       </c>
       <c r="H23" s="21"/>
-      <c r="I23" s="107"/>
+      <c r="I23" s="112"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="107"/>
+      <c r="K23" s="112"/>
       <c r="L23" s="21"/>
-      <c r="M23" s="115" t="s">
+      <c r="M23" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="O23" s="107"/>
+      <c r="O23" s="112"/>
       <c r="P23" s="21"/>
-      <c r="Q23" s="107"/>
+      <c r="Q23" s="112"/>
       <c r="R23" s="21"/>
-      <c r="S23" s="107"/>
+      <c r="S23" s="112"/>
       <c r="T23" s="21"/>
-      <c r="U23" s="107"/>
+      <c r="U23" s="112"/>
       <c r="V23" s="21"/>
-      <c r="W23" s="107"/>
+      <c r="W23" s="112"/>
       <c r="X23" s="21"/>
-      <c r="Y23" s="107"/>
+      <c r="Y23" s="112"/>
       <c r="Z23" s="21"/>
     </row>
     <row r="24" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="112" t="s">
+      <c r="C24" s="115" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="22">
         <f>(V21+V22)*1/2+(R32+R31)*10</f>
         <v>0</v>
       </c>
-      <c r="E24" s="115"/>
+      <c r="E24" s="109"/>
       <c r="F24" s="10">
         <f>IF(D23="光栅石",(D24+D25),0)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="108" t="s">
+      <c r="G24" s="113" t="s">
         <v>70</v>
       </c>
       <c r="H24" s="22">
         <f>(J21+J22)*2</f>
         <v>0</v>
       </c>
-      <c r="I24" s="108"/>
+      <c r="I24" s="113"/>
       <c r="J24" s="22"/>
-      <c r="K24" s="108"/>
+      <c r="K24" s="113"/>
       <c r="L24" s="22"/>
-      <c r="M24" s="115"/>
+      <c r="M24" s="109"/>
       <c r="N24" s="10">
         <f>IF(N20="单极磁石",(N22+N21)*10,0)</f>
         <v>0</v>
       </c>
-      <c r="O24" s="108"/>
+      <c r="O24" s="113"/>
       <c r="P24" s="22"/>
-      <c r="Q24" s="108"/>
+      <c r="Q24" s="113"/>
       <c r="R24" s="22"/>
-      <c r="S24" s="108"/>
+      <c r="S24" s="113"/>
       <c r="T24" s="22"/>
-      <c r="U24" s="108"/>
+      <c r="U24" s="113"/>
       <c r="V24" s="22"/>
-      <c r="W24" s="108"/>
+      <c r="W24" s="113"/>
       <c r="X24" s="22"/>
-      <c r="Y24" s="108"/>
+      <c r="Y24" s="113"/>
       <c r="Z24" s="22"/>
     </row>
     <row r="25" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16606,82 +16683,82 @@
       <c r="Z25" s="20"/>
     </row>
     <row r="26" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="116" t="s">
+      <c r="C26" s="119" t="s">
         <v>72</v>
       </c>
       <c r="D26" s="25"/>
-      <c r="E26" s="116" t="s">
+      <c r="E26" s="119" t="s">
         <v>73</v>
       </c>
       <c r="F26" s="25"/>
-      <c r="G26" s="116" t="s">
+      <c r="G26" s="119" t="s">
         <v>74</v>
       </c>
       <c r="H26" s="25"/>
-      <c r="I26" s="116" t="s">
+      <c r="I26" s="119" t="s">
         <v>75</v>
       </c>
       <c r="J26" s="25"/>
-      <c r="K26" s="116" t="s">
+      <c r="K26" s="119" t="s">
         <v>76</v>
       </c>
       <c r="L26" s="25"/>
-      <c r="M26" s="107"/>
+      <c r="M26" s="112"/>
       <c r="N26" s="21"/>
-      <c r="O26" s="107"/>
+      <c r="O26" s="112"/>
       <c r="P26" s="21"/>
-      <c r="Q26" s="107"/>
+      <c r="Q26" s="112"/>
       <c r="R26" s="21"/>
-      <c r="S26" s="107"/>
+      <c r="S26" s="112"/>
       <c r="T26" s="21"/>
-      <c r="U26" s="107"/>
+      <c r="U26" s="112"/>
       <c r="V26" s="21"/>
-      <c r="W26" s="107"/>
+      <c r="W26" s="112"/>
       <c r="X26" s="21"/>
-      <c r="Y26" s="111" t="s">
+      <c r="Y26" s="114" t="s">
         <v>77</v>
       </c>
       <c r="Z26" s="21"/>
     </row>
     <row r="27" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="117"/>
+      <c r="C27" s="120"/>
       <c r="D27" s="26">
         <f>N27+N28</f>
         <v>0</v>
       </c>
-      <c r="E27" s="117"/>
+      <c r="E27" s="120"/>
       <c r="F27" s="26">
         <f>N27+N28</f>
         <v>0</v>
       </c>
-      <c r="G27" s="117"/>
+      <c r="G27" s="120"/>
       <c r="H27" s="26">
         <f>N27+N28</f>
         <v>0</v>
       </c>
-      <c r="I27" s="117"/>
+      <c r="I27" s="120"/>
       <c r="J27" s="26">
         <f>N27+N28</f>
         <v>0</v>
       </c>
-      <c r="K27" s="117"/>
+      <c r="K27" s="120"/>
       <c r="L27" s="26">
         <f>N27+N28</f>
         <v>0</v>
       </c>
-      <c r="M27" s="108"/>
+      <c r="M27" s="113"/>
       <c r="N27" s="22"/>
-      <c r="O27" s="108"/>
+      <c r="O27" s="113"/>
       <c r="P27" s="22"/>
-      <c r="Q27" s="108"/>
+      <c r="Q27" s="113"/>
       <c r="R27" s="22"/>
-      <c r="S27" s="108"/>
+      <c r="S27" s="113"/>
       <c r="T27" s="22"/>
-      <c r="U27" s="108"/>
+      <c r="U27" s="113"/>
       <c r="V27" s="22"/>
-      <c r="W27" s="108"/>
+      <c r="W27" s="113"/>
       <c r="X27" s="22"/>
-      <c r="Y27" s="112" t="s">
+      <c r="Y27" s="115" t="s">
         <v>77</v>
       </c>
       <c r="Z27" s="22"/>
@@ -16732,76 +16809,76 @@
     </row>
     <row r="29" spans="3:26" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="111" t="s">
+      <c r="C30" s="114" t="s">
         <v>78</v>
       </c>
       <c r="D30" s="28"/>
-      <c r="E30" s="111" t="s">
+      <c r="E30" s="114" t="s">
         <v>79</v>
       </c>
       <c r="F30" s="28"/>
-      <c r="G30" s="107"/>
+      <c r="G30" s="112"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="111" t="s">
+      <c r="I30" s="114" t="s">
         <v>80</v>
       </c>
       <c r="J30" s="28"/>
-      <c r="K30" s="111" t="s">
+      <c r="K30" s="114" t="s">
         <v>81</v>
       </c>
       <c r="L30" s="28"/>
-      <c r="M30" s="111" t="s">
+      <c r="M30" s="114" t="s">
         <v>82</v>
       </c>
       <c r="N30" s="28"/>
-      <c r="O30" s="111" t="s">
+      <c r="O30" s="114" t="s">
         <v>83</v>
       </c>
       <c r="P30" s="28"/>
-      <c r="Q30" s="111" t="s">
+      <c r="Q30" s="114" t="s">
         <v>84</v>
       </c>
       <c r="R30" s="28"/>
-      <c r="S30" s="107"/>
+      <c r="S30" s="112"/>
       <c r="T30" s="28"/>
-      <c r="U30" s="107"/>
+      <c r="U30" s="112"/>
       <c r="V30" s="28"/>
-      <c r="W30" s="107"/>
+      <c r="W30" s="112"/>
       <c r="X30" s="28"/>
-      <c r="Y30" s="107"/>
+      <c r="Y30" s="112"/>
       <c r="Z30" s="28"/>
     </row>
     <row r="31" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="112" t="s">
+      <c r="C31" s="115" t="s">
         <v>78</v>
       </c>
       <c r="D31" s="29">
         <f>(F31+F32)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="112" t="s">
+      <c r="E31" s="115" t="s">
         <v>79</v>
       </c>
       <c r="F31" s="22"/>
-      <c r="G31" s="108"/>
+      <c r="G31" s="113"/>
       <c r="H31" s="22"/>
-      <c r="I31" s="112"/>
+      <c r="I31" s="115"/>
       <c r="J31" s="22"/>
-      <c r="K31" s="112"/>
+      <c r="K31" s="115"/>
       <c r="L31" s="22"/>
-      <c r="M31" s="112"/>
+      <c r="M31" s="115"/>
       <c r="N31" s="22"/>
-      <c r="O31" s="112"/>
+      <c r="O31" s="115"/>
       <c r="P31" s="22"/>
-      <c r="Q31" s="112"/>
+      <c r="Q31" s="115"/>
       <c r="R31" s="22"/>
-      <c r="S31" s="108"/>
+      <c r="S31" s="113"/>
       <c r="T31" s="22"/>
-      <c r="U31" s="108"/>
+      <c r="U31" s="113"/>
       <c r="V31" s="22"/>
-      <c r="W31" s="108"/>
+      <c r="W31" s="113"/>
       <c r="X31" s="22"/>
-      <c r="Y31" s="108"/>
+      <c r="Y31" s="113"/>
       <c r="Z31" s="22"/>
     </row>
     <row r="32" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16852,82 +16929,82 @@
       <c r="Z32" s="20"/>
     </row>
     <row r="33" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="111" t="s">
+      <c r="C33" s="114" t="s">
         <v>85</v>
       </c>
       <c r="D33" s="28"/>
-      <c r="E33" s="111" t="s">
+      <c r="E33" s="114" t="s">
         <v>86</v>
       </c>
       <c r="F33" s="28"/>
-      <c r="G33" s="111" t="s">
+      <c r="G33" s="114" t="s">
         <v>87</v>
       </c>
       <c r="H33" s="28"/>
-      <c r="I33" s="111" t="s">
+      <c r="I33" s="114" t="s">
         <v>88</v>
       </c>
       <c r="J33" s="28"/>
-      <c r="K33" s="111" t="s">
+      <c r="K33" s="114" t="s">
         <v>89</v>
       </c>
       <c r="L33" s="28"/>
-      <c r="M33" s="111" t="s">
+      <c r="M33" s="114" t="s">
         <v>90</v>
       </c>
       <c r="N33" s="28"/>
-      <c r="O33" s="111" t="s">
+      <c r="O33" s="114" t="s">
         <v>91</v>
       </c>
       <c r="P33" s="28"/>
-      <c r="Q33" s="111" t="s">
+      <c r="Q33" s="114" t="s">
         <v>92</v>
       </c>
       <c r="R33" s="28"/>
-      <c r="S33" s="111" t="s">
+      <c r="S33" s="114" t="s">
         <v>93</v>
       </c>
       <c r="T33" s="28"/>
-      <c r="U33" s="107"/>
+      <c r="U33" s="112"/>
       <c r="V33" s="28"/>
-      <c r="W33" s="107"/>
+      <c r="W33" s="112"/>
       <c r="X33" s="28"/>
-      <c r="Y33" s="107"/>
+      <c r="Y33" s="112"/>
       <c r="Z33" s="28"/>
     </row>
     <row r="34" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="112"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="22">
         <f>(F35+F34)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="112"/>
+      <c r="E34" s="115"/>
       <c r="F34" s="22">
         <f>(H35+H34)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="112"/>
+      <c r="G34" s="115"/>
       <c r="H34" s="22"/>
-      <c r="I34" s="112"/>
+      <c r="I34" s="115"/>
       <c r="J34" s="22"/>
-      <c r="K34" s="112"/>
+      <c r="K34" s="115"/>
       <c r="L34" s="22"/>
-      <c r="M34" s="112"/>
+      <c r="M34" s="115"/>
       <c r="N34" s="22"/>
-      <c r="O34" s="112"/>
+      <c r="O34" s="115"/>
       <c r="P34" s="22"/>
-      <c r="Q34" s="112"/>
+      <c r="Q34" s="115"/>
       <c r="R34" s="22"/>
-      <c r="S34" s="112"/>
+      <c r="S34" s="115"/>
       <c r="T34" s="22">
         <f>(T38+T37)</f>
         <v>0</v>
       </c>
-      <c r="U34" s="108"/>
+      <c r="U34" s="113"/>
       <c r="V34" s="22"/>
-      <c r="W34" s="108"/>
+      <c r="W34" s="113"/>
       <c r="X34" s="22"/>
-      <c r="Y34" s="108"/>
+      <c r="Y34" s="113"/>
       <c r="Z34" s="22"/>
     </row>
     <row r="35" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16984,77 +17061,77 @@
       <c r="Z35" s="20"/>
     </row>
     <row r="36" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="111" t="s">
+      <c r="C36" s="114" t="s">
         <v>94</v>
       </c>
       <c r="D36" s="28"/>
-      <c r="E36" s="111" t="s">
+      <c r="E36" s="114" t="s">
         <v>95</v>
       </c>
       <c r="F36" s="28"/>
-      <c r="G36" s="111" t="s">
+      <c r="G36" s="114" t="s">
         <v>96</v>
       </c>
       <c r="H36" s="28"/>
-      <c r="I36" s="107" t="s">
+      <c r="I36" s="112" t="s">
         <v>97</v>
       </c>
       <c r="J36" s="28"/>
-      <c r="K36" s="107" t="s">
+      <c r="K36" s="112" t="s">
         <v>98</v>
       </c>
       <c r="L36" s="28"/>
-      <c r="M36" s="107" t="s">
+      <c r="M36" s="112" t="s">
         <v>99</v>
       </c>
       <c r="N36" s="28"/>
-      <c r="O36" s="107" t="s">
+      <c r="O36" s="112" t="s">
         <v>100</v>
       </c>
       <c r="P36" s="28"/>
-      <c r="Q36" s="107"/>
+      <c r="Q36" s="112"/>
       <c r="R36" s="28"/>
-      <c r="S36" s="111" t="s">
+      <c r="S36" s="114" t="s">
         <v>101</v>
       </c>
       <c r="T36" s="28"/>
-      <c r="U36" s="107"/>
+      <c r="U36" s="112"/>
       <c r="V36" s="28"/>
-      <c r="W36" s="107"/>
+      <c r="W36" s="112"/>
       <c r="X36" s="28"/>
-      <c r="Y36" s="107"/>
+      <c r="Y36" s="112"/>
       <c r="Z36" s="28"/>
     </row>
     <row r="37" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="112"/>
+      <c r="C37" s="115"/>
       <c r="D37" s="22">
         <f>(F38+F37)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="112"/>
+      <c r="E37" s="115"/>
       <c r="F37" s="22">
         <f>(H38+H37)</f>
         <v>0</v>
       </c>
-      <c r="G37" s="112"/>
+      <c r="G37" s="115"/>
       <c r="H37" s="22"/>
-      <c r="I37" s="108"/>
+      <c r="I37" s="113"/>
       <c r="J37" s="22"/>
-      <c r="K37" s="108"/>
+      <c r="K37" s="113"/>
       <c r="L37" s="22"/>
-      <c r="M37" s="108"/>
+      <c r="M37" s="113"/>
       <c r="N37" s="22"/>
-      <c r="O37" s="108"/>
+      <c r="O37" s="113"/>
       <c r="P37" s="22"/>
-      <c r="Q37" s="108"/>
+      <c r="Q37" s="113"/>
       <c r="R37" s="22"/>
-      <c r="S37" s="112"/>
+      <c r="S37" s="115"/>
       <c r="T37" s="22"/>
-      <c r="U37" s="108"/>
+      <c r="U37" s="113"/>
       <c r="V37" s="22"/>
-      <c r="W37" s="108"/>
+      <c r="W37" s="113"/>
       <c r="X37" s="22"/>
-      <c r="Y37" s="108"/>
+      <c r="Y37" s="113"/>
       <c r="Z37" s="22"/>
     </row>
     <row r="38" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17108,72 +17185,72 @@
       <c r="Z38" s="20"/>
     </row>
     <row r="39" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="111" t="s">
+      <c r="C39" s="114" t="s">
         <v>102</v>
       </c>
       <c r="D39" s="28"/>
-      <c r="E39" s="111" t="s">
+      <c r="E39" s="114" t="s">
         <v>103</v>
       </c>
       <c r="F39" s="28"/>
-      <c r="G39" s="111" t="s">
+      <c r="G39" s="114" t="s">
         <v>104</v>
       </c>
       <c r="H39" s="28"/>
-      <c r="I39" s="107" t="s">
+      <c r="I39" s="112" t="s">
         <v>105</v>
       </c>
       <c r="J39" s="28"/>
-      <c r="K39" s="107"/>
+      <c r="K39" s="112"/>
       <c r="L39" s="28"/>
-      <c r="M39" s="107" t="s">
+      <c r="M39" s="112" t="s">
         <v>106</v>
       </c>
       <c r="N39" s="28"/>
-      <c r="O39" s="107" t="s">
+      <c r="O39" s="112" t="s">
         <v>107</v>
       </c>
       <c r="P39" s="28"/>
-      <c r="Q39" s="107" t="s">
+      <c r="Q39" s="112" t="s">
         <v>108</v>
       </c>
       <c r="R39" s="28"/>
-      <c r="S39" s="107"/>
+      <c r="S39" s="112"/>
       <c r="T39" s="28"/>
-      <c r="U39" s="107"/>
+      <c r="U39" s="112"/>
       <c r="V39" s="28"/>
-      <c r="W39" s="107"/>
+      <c r="W39" s="112"/>
       <c r="X39" s="28"/>
-      <c r="Y39" s="107"/>
+      <c r="Y39" s="112"/>
       <c r="Z39" s="28"/>
     </row>
     <row r="40" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C40" s="112"/>
+      <c r="C40" s="115"/>
       <c r="D40" s="22">
         <f>(F41+F40)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="112"/>
+      <c r="E40" s="115"/>
       <c r="F40" s="22"/>
-      <c r="G40" s="112"/>
+      <c r="G40" s="115"/>
       <c r="H40" s="22"/>
-      <c r="I40" s="108"/>
+      <c r="I40" s="113"/>
       <c r="J40" s="22"/>
-      <c r="K40" s="108"/>
+      <c r="K40" s="113"/>
       <c r="L40" s="22"/>
-      <c r="M40" s="108"/>
+      <c r="M40" s="113"/>
       <c r="N40" s="22"/>
-      <c r="O40" s="108"/>
+      <c r="O40" s="113"/>
       <c r="P40" s="22"/>
-      <c r="Q40" s="108"/>
+      <c r="Q40" s="113"/>
       <c r="R40" s="22"/>
-      <c r="S40" s="108"/>
+      <c r="S40" s="113"/>
       <c r="T40" s="22"/>
-      <c r="U40" s="108"/>
+      <c r="U40" s="113"/>
       <c r="V40" s="22"/>
-      <c r="W40" s="108"/>
+      <c r="W40" s="113"/>
       <c r="X40" s="22"/>
-      <c r="Y40" s="108"/>
+      <c r="Y40" s="113"/>
       <c r="Z40" s="22"/>
     </row>
     <row r="41" spans="3:26" x14ac:dyDescent="0.25">
@@ -17221,55 +17298,55 @@
       <c r="Z41" s="20"/>
     </row>
     <row r="42" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C42" s="107"/>
+      <c r="C42" s="112"/>
       <c r="D42" s="28"/>
-      <c r="E42" s="107"/>
+      <c r="E42" s="112"/>
       <c r="F42" s="28"/>
-      <c r="G42" s="107"/>
+      <c r="G42" s="112"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="107"/>
+      <c r="I42" s="112"/>
       <c r="J42" s="28"/>
-      <c r="K42" s="107"/>
+      <c r="K42" s="112"/>
       <c r="L42" s="28"/>
-      <c r="M42" s="107"/>
+      <c r="M42" s="112"/>
       <c r="N42" s="28"/>
-      <c r="O42" s="107"/>
+      <c r="O42" s="112"/>
       <c r="P42" s="28"/>
-      <c r="Q42" s="107"/>
+      <c r="Q42" s="112"/>
       <c r="R42" s="28"/>
-      <c r="S42" s="107"/>
+      <c r="S42" s="112"/>
       <c r="T42" s="28"/>
-      <c r="U42" s="107"/>
+      <c r="U42" s="112"/>
       <c r="V42" s="28"/>
-      <c r="W42" s="107"/>
+      <c r="W42" s="112"/>
       <c r="X42" s="28"/>
-      <c r="Y42" s="107"/>
+      <c r="Y42" s="112"/>
       <c r="Z42" s="28"/>
     </row>
     <row r="43" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C43" s="108"/>
+      <c r="C43" s="113"/>
       <c r="D43" s="22"/>
-      <c r="E43" s="108"/>
+      <c r="E43" s="113"/>
       <c r="F43" s="22"/>
-      <c r="G43" s="108"/>
+      <c r="G43" s="113"/>
       <c r="H43" s="22"/>
-      <c r="I43" s="108"/>
+      <c r="I43" s="113"/>
       <c r="J43" s="22"/>
-      <c r="K43" s="108"/>
+      <c r="K43" s="113"/>
       <c r="L43" s="22"/>
-      <c r="M43" s="108"/>
+      <c r="M43" s="113"/>
       <c r="N43" s="22"/>
-      <c r="O43" s="108"/>
+      <c r="O43" s="113"/>
       <c r="P43" s="22"/>
-      <c r="Q43" s="108"/>
+      <c r="Q43" s="113"/>
       <c r="R43" s="22"/>
-      <c r="S43" s="108"/>
+      <c r="S43" s="113"/>
       <c r="T43" s="22"/>
-      <c r="U43" s="108"/>
+      <c r="U43" s="113"/>
       <c r="V43" s="22"/>
-      <c r="W43" s="108"/>
+      <c r="W43" s="113"/>
       <c r="X43" s="22"/>
-      <c r="Y43" s="108"/>
+      <c r="Y43" s="113"/>
       <c r="Z43" s="22"/>
     </row>
     <row r="44" spans="3:26" x14ac:dyDescent="0.25">
@@ -17300,6 +17377,132 @@
     </row>
   </sheetData>
   <mergeCells count="150">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="Y36:Y37"/>
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="Y42:Y43"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="W42:W43"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E42:E43"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="A2:A3"/>
@@ -17324,132 +17527,6 @@
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="O14:O15"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="W39:W40"/>
-    <mergeCell ref="W42:W43"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="Y36:Y37"/>
-    <mergeCell ref="Y39:Y40"/>
-    <mergeCell ref="Y42:Y43"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="W23:W24"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="C10">
@@ -19005,7 +19082,7 @@
   <dimension ref="B1:R54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -19724,6 +19801,379 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678E68BF-1FA3-4EBA-8691-565B74140D3E}">
+  <dimension ref="B2:U18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C2" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="K2">
+        <f>(H4+I4+K4)/3</f>
+        <v>30329.633333333331</v>
+      </c>
+      <c r="L2">
+        <f>(J4+L4+562.5)/2</f>
+        <v>29233.45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>23659.200000000001</v>
+      </c>
+      <c r="D3">
+        <f>O10+P10</f>
+        <v>960</v>
+      </c>
+      <c r="E3">
+        <f>C3-D3</f>
+        <v>22699.200000000001</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B4" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>11023.2</v>
+      </c>
+      <c r="D4">
+        <f>Q10</f>
+        <v>202.5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E15" si="0">C4-D4</f>
+        <v>10820.7</v>
+      </c>
+      <c r="G4">
+        <f>C18/5</f>
+        <v>29344.159999999996</v>
+      </c>
+      <c r="H4">
+        <f>E15+E13</f>
+        <v>24576</v>
+      </c>
+      <c r="I4">
+        <f>E3+E7+E12+E4</f>
+        <v>38497.9</v>
+      </c>
+      <c r="J4">
+        <f>E6+E5+E10</f>
+        <v>45689.4</v>
+      </c>
+      <c r="K4">
+        <f>E14+E9</f>
+        <v>27915</v>
+      </c>
+      <c r="L4">
+        <f>E11+E16+E8</f>
+        <v>12215</v>
+      </c>
+      <c r="M4" s="54">
+        <f>SUM(H4:L4)</f>
+        <v>148893.29999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>4838.3999999999996</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4838.3999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B6" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>26496</v>
+      </c>
+      <c r="D6">
+        <f>T10*2</f>
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>26451</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>1152</v>
+      </c>
+      <c r="D7">
+        <f>R10*2</f>
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>5760</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>15300</v>
+      </c>
+      <c r="D9">
+        <f>-S10/2</f>
+        <v>-15</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>15315</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="N9" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="O9" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="P9" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q9" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="R9" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="S9" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="T9" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="U9" s="54" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B10" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10">
+        <v>14400</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+      <c r="J10" s="54">
+        <f>22.5*2</f>
+        <v>45</v>
+      </c>
+      <c r="K10">
+        <f>90*2+J10</f>
+        <v>225</v>
+      </c>
+      <c r="L10">
+        <f>45*2+J10</f>
+        <v>135</v>
+      </c>
+      <c r="M10">
+        <v>90</v>
+      </c>
+      <c r="N10" s="54">
+        <f>15*4</f>
+        <v>60</v>
+      </c>
+      <c r="O10">
+        <f>J10*2+L10+M10+N10*3+45*5</f>
+        <v>720</v>
+      </c>
+      <c r="P10">
+        <f>15+K10</f>
+        <v>240</v>
+      </c>
+      <c r="Q10">
+        <f>45+M10/2+K10/2</f>
+        <v>202.5</v>
+      </c>
+      <c r="R10" s="54">
+        <f>22.5*2</f>
+        <v>45</v>
+      </c>
+      <c r="S10">
+        <v>30</v>
+      </c>
+      <c r="T10">
+        <v>22.5</v>
+      </c>
+      <c r="U10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>2880</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12">
+        <v>3916</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3916</v>
+      </c>
+      <c r="O12" s="54" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>3960</v>
+      </c>
+      <c r="D13">
+        <f>S10</f>
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>3930</v>
+      </c>
+      <c r="O13">
+        <f>J10*2+L10</f>
+        <v>225</v>
+      </c>
+      <c r="Q13">
+        <f>M10/2+K10/2</f>
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14">
+        <v>12600</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B15" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15">
+        <v>20736</v>
+      </c>
+      <c r="D15">
+        <f>U10*6</f>
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>20646</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B16" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="104"/>
+      <c r="E16">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B17" s="57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="54">
+        <f>SUM(C3:C17)</f>
+        <v>146720.79999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="33" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -19731,7 +20181,7 @@
   <dimension ref="A1:AT64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -22946,6 +23396,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -22957,20 +23419,10 @@
 </pixelators>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22994,12 +23446,19 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -23008,17 +23467,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -23045,7 +23495,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
